--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -2342,9 +2342,6 @@
     <t>test\simple\test-zlib-convenience-methods.js</t>
   </si>
   <si>
-    <t>Yes *stdout/stderr is redirected to file*</t>
-  </si>
-  <si>
     <t>UWP Support (Yes/No)</t>
   </si>
   <si>
@@ -2388,6 +2385,9 @@
   </si>
   <si>
     <t>ZLIB</t>
+  </si>
+  <si>
+    <t>No (output can optionally be redirected to file)</t>
   </si>
 </sst>
 </file>
@@ -2887,14 +2887,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E850"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B812" sqref="B812"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -2902,16 +2902,16 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>13</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="78" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="42" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>76</v>
@@ -3735,8 +3735,8 @@
       <c r="A84" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>772</v>
+      <c r="B84" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>191</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="450" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A450" s="24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B450" s="23" t="s">
         <v>63</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="511" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A511" s="24" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B511" s="23" t="s">
         <v>63</v>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="545" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A545" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B545" s="23" t="s">
         <v>63</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="586" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A586" s="24" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B586" s="23" t="s">
         <v>63</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="597" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A597" s="24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B597" s="23" t="s">
         <v>63</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="681" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A681" s="24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B681" s="23" t="s">
         <v>63</v>
@@ -7732,7 +7732,7 @@
     </row>
     <row r="750" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A750" s="24" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B750" s="23" t="s">
         <v>63</v>
@@ -7947,7 +7947,7 @@
     </row>
     <row r="779" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A779" s="24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B779" s="23" t="s">
         <v>63</v>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="799" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A799" s="24" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B799" s="23" t="s">
         <v>63</v>
@@ -8157,7 +8157,7 @@
     </row>
     <row r="813" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A813" s="24" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B813" s="23" t="s">
         <v>63</v>

--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="796">
   <si>
     <t>assert.fail(actual, expected, message, operator)</t>
   </si>
@@ -2336,9 +2336,6 @@
     <t>test\simple\test-vm-basic.js</t>
   </si>
   <si>
-    <t>test\simple\test-zlib.js</t>
-  </si>
-  <si>
     <t>test\simple\test-zlib-convenience-methods.js</t>
   </si>
   <si>
@@ -2387,14 +2384,41 @@
     <t>ZLIB</t>
   </si>
   <si>
-    <t>No (output can optionally be redirected to file)</t>
+    <t>Pass (with redirection to file)</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>In Testing</t>
+  </si>
+  <si>
+    <t>test\simple\test-crypto.js</t>
+  </si>
+  <si>
+    <t>test\simple\test-fs-open.js</t>
+  </si>
+  <si>
+    <t>test\simple\test-fs-write.js</t>
+  </si>
+  <si>
+    <t>test\simple\test-http.js</t>
+  </si>
+  <si>
+    <t>Output can optionally be redirected to file</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Test pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2440,8 +2464,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2461,6 +2493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,7 +2547,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -2519,19 +2557,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2548,10 +2575,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2567,24 +2590,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -2601,6 +2611,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2885,80 +2929,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E850"/>
+  <dimension ref="A2:F852"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B586" sqref="B586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2968,19 +3016,21 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2990,19 +3040,21 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3011,20 +3063,22 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3034,10 +3088,10 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3047,10 +3101,10 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="22" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -3058,62 +3112,70 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="19"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -3126,15 +3188,18 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="14" t="s">
         <v>149</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -3147,7 +3212,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -3160,7 +3225,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -3173,7 +3238,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -3186,7 +3251,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -3199,7 +3264,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -3212,7 +3277,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -3225,7 +3290,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -3238,7 +3303,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -3251,7 +3316,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -3264,7 +3329,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -3277,7 +3342,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3290,7 +3355,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -3303,7 +3368,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -3316,7 +3381,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -3329,7 +3394,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3342,7 +3407,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -3355,7 +3420,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -3368,7 +3433,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -3381,7 +3446,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -3394,7 +3459,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -3407,39 +3472,51 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -3452,39 +3529,51 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -3497,31 +3586,40 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -3534,7 +3632,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -3547,15 +3645,18 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3568,15 +3669,18 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -3589,39 +3693,51 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -3634,15 +3750,18 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3655,17 +3774,20 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3676,19 +3798,25 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="13" t="s">
         <v>197</v>
       </c>
       <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="30"/>
+      <c r="C76" s="23"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
@@ -3698,144 +3826,178 @@
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="42" t="s">
-        <v>777</v>
-      </c>
-      <c r="B78" s="31" t="s">
+      <c r="A78" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="C78" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
     <row r="81" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="5"/>
+      <c r="C81" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>787</v>
-      </c>
-      <c r="C84" s="37" t="s">
+      <c r="B84" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C84" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D85" t="s">
         <v>75</v>
       </c>
-      <c r="E85" s="3"/>
+      <c r="E85" s="4" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D86" t="s">
         <v>75</v>
       </c>
-      <c r="E86" s="3"/>
+      <c r="E86" s="4" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D87" t="s">
         <v>75</v>
       </c>
-      <c r="E87" s="3"/>
+      <c r="E87" s="4" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D89" t="s">
         <v>75</v>
       </c>
-      <c r="E89" s="3"/>
+      <c r="E89" s="4" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D90" t="s">
         <v>75</v>
       </c>
-      <c r="E90" s="3"/>
+      <c r="E90" s="4" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="25" t="s">
         <v>72</v>
       </c>
       <c r="D91" t="s">
         <v>75</v>
       </c>
-      <c r="E91" s="3"/>
+      <c r="E91" s="4" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D92" t="s">
         <v>75</v>
       </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="4" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
@@ -3852,403 +4014,615 @@
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="24" t="s">
+      <c r="A96" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" s="37" t="s">
+      <c r="B96" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C96" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="35" t="s">
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="35" t="s">
+      <c r="E97" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98" s="24" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="35" t="s">
+      <c r="E98" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99" s="24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="35" t="s">
+      <c r="E99" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100" s="24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="35" t="s">
+      <c r="E100" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="35" t="s">
+      <c r="D101" t="s">
+        <v>789</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="38" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="38" t="s">
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103" s="26" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="38" t="s">
+      <c r="E103" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="35" t="s">
+      <c r="E104" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="35" t="s">
+      <c r="D105" t="s">
+        <v>789</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="38" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="38" t="s">
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="26" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="38" t="s">
+      <c r="E107" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="35" t="s">
+      <c r="E108" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="24" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="35" t="s">
+      <c r="E109" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="35" t="s">
+      <c r="E110" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C111" s="38" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="38" t="s">
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C112" s="26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="38" t="s">
+      <c r="E112" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C113" s="26" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="38" t="s">
+      <c r="E113" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C114" s="26" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="38" t="s">
+      <c r="E114" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C115" s="26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="38" t="s">
+      <c r="E115" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C116" s="26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="35" t="s">
+      <c r="E116" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C117" s="24" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="35" t="s">
+      <c r="E117" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C118" s="24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="35" t="s">
+      <c r="E118" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C119" s="38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="38" t="s">
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C120" s="26" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="38" t="s">
+      <c r="E120" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C121" s="26" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="38" t="s">
+      <c r="E121" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C122" s="26" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="38" t="s">
+      <c r="E122" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C123" s="26" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="38" t="s">
+      <c r="E123" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C124" s="26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="35" t="s">
+      <c r="E124" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C125" s="24" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="35" t="s">
+      <c r="D125" t="s">
+        <v>789</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C126" s="38" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="38" t="s">
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C127" s="26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="38" t="s">
+      <c r="E127" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C128" s="26" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="35" t="s">
+      <c r="E128" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C129" s="24" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="35" t="s">
+      <c r="E129" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C130" s="38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="38" t="s">
+      <c r="D130" s="39"/>
+      <c r="E130" s="39"/>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C131" s="26" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="38" t="s">
+      <c r="E131" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C132" s="26" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="35" t="s">
+      <c r="E132" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C133" s="24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="35" t="s">
+      <c r="E133" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C134" s="24" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="35" t="s">
+      <c r="E134" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C135" s="38" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="38" t="s">
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C136" s="26" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="38" t="s">
+      <c r="E136" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C137" s="26" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="38" t="s">
+      <c r="E137" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C138" s="26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="38" t="s">
+      <c r="E138" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C139" s="26" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="38" t="s">
+      <c r="E139" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C140" s="26" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="38" t="s">
+      <c r="E140" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C141" s="26" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="38" t="s">
+      <c r="E141" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C142" s="26" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="38" t="s">
+      <c r="E142" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C143" s="26" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="38" t="s">
+      <c r="E143" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C144" s="26" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="35" t="s">
+      <c r="E144" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C145" s="24" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="35" t="s">
+      <c r="E145" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C146" s="24" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="35" t="s">
+      <c r="E146" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C147" s="38" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="38" t="s">
+      <c r="D147" s="39"/>
+      <c r="E147" s="39"/>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C148" s="26" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="38" t="s">
+      <c r="E148" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C149" s="26" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="38" t="s">
+      <c r="E149" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C150" s="26" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="38" t="s">
+      <c r="E150" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C151" s="26" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="38" t="s">
+      <c r="E151" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C152" s="26" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="38" t="s">
+      <c r="E152" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C153" s="26" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="35" t="s">
+      <c r="E153" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C154" s="24" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="35" t="s">
+      <c r="E154" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C155" s="24" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="35" t="s">
+      <c r="E155" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C156" s="24" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="35" t="s">
+      <c r="E156" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C157" s="24" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="35" t="s">
+      <c r="E157" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C158" s="38" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="38" t="s">
+      <c r="D158" s="39"/>
+      <c r="E158" s="39"/>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C159" s="26" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="38" t="s">
+      <c r="E159" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C160" s="26" t="s">
         <v>141</v>
       </c>
+      <c r="E160" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C161" s="38" t="s">
+      <c r="C161" s="26" t="s">
         <v>142</v>
       </c>
+      <c r="E161" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C162" s="35" t="s">
+      <c r="C162" s="24" t="s">
         <v>143</v>
       </c>
+      <c r="E162" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C163" s="35" t="s">
+      <c r="C163" s="24" t="s">
         <v>144</v>
       </c>
+      <c r="E163" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C164" s="35" t="s">
+      <c r="C164" s="24" t="s">
         <v>145</v>
       </c>
+      <c r="E164" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="35" t="s">
+      <c r="C165" s="38" t="s">
         <v>146</v>
       </c>
+      <c r="D165" s="39"/>
+      <c r="E165" s="39"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
-      <c r="C166" s="39"/>
+      <c r="C166" s="27"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
     </row>
     <row r="168" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
+      <c r="C168" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="25"/>
+      <c r="A169" s="18"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
     </row>
     <row r="171" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A171" s="24" t="s">
+      <c r="A171" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B171" s="23" t="s">
+      <c r="B171" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C171" s="30" t="s">
+      <c r="C171" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="19" t="s">
+      <c r="C172" s="14" t="s">
         <v>155</v>
       </c>
       <c r="D172" t="s">
@@ -4259,12 +4633,15 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="13" t="s">
         <v>156</v>
       </c>
+      <c r="E173" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="19" t="s">
+      <c r="C174" s="14" t="s">
         <v>157</v>
       </c>
       <c r="D174" t="s">
@@ -4275,7 +4652,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="19" t="s">
+      <c r="C175" s="14" t="s">
         <v>158</v>
       </c>
       <c r="D175" t="s">
@@ -4286,7 +4663,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="19" t="s">
+      <c r="C176" s="14" t="s">
         <v>159</v>
       </c>
       <c r="D176" t="s">
@@ -4297,7 +4674,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="19" t="s">
+      <c r="C177" s="14" t="s">
         <v>160</v>
       </c>
       <c r="D177" t="s">
@@ -4308,7 +4685,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="19" t="s">
+      <c r="C178" s="14" t="s">
         <v>161</v>
       </c>
       <c r="D178" t="s">
@@ -4319,7 +4696,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="19" t="s">
+      <c r="C179" s="14" t="s">
         <v>162</v>
       </c>
       <c r="D179" t="s">
@@ -4330,7 +4707,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="19" t="s">
+      <c r="C180" s="14" t="s">
         <v>163</v>
       </c>
       <c r="D180" t="s">
@@ -4341,7 +4718,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C181" s="19" t="s">
+      <c r="C181" s="14" t="s">
         <v>164</v>
       </c>
       <c r="D181" t="s">
@@ -4352,7 +4729,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C182" s="19" t="s">
+      <c r="C182" s="14" t="s">
         <v>165</v>
       </c>
       <c r="D182" t="s">
@@ -4363,12 +4740,15 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C183" s="19" t="s">
+      <c r="C183" s="14" t="s">
         <v>166</v>
       </c>
+      <c r="E183" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C184" s="19" t="s">
+      <c r="C184" s="14" t="s">
         <v>167</v>
       </c>
       <c r="D184" t="s">
@@ -4379,7 +4759,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C185" s="19" t="s">
+      <c r="C185" s="14" t="s">
         <v>168</v>
       </c>
       <c r="D185" t="s">
@@ -4390,29 +4770,39 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C186" s="19" t="s">
+      <c r="C186" s="40" t="s">
         <v>169</v>
       </c>
+      <c r="D186" s="39"/>
+      <c r="E186" s="39"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C187" s="19" t="s">
+      <c r="C187" s="40" t="s">
         <v>170</v>
       </c>
+      <c r="D187" s="39"/>
+      <c r="E187" s="39"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="19" t="s">
+      <c r="C188" s="40" t="s">
         <v>171</v>
       </c>
+      <c r="D188" s="39"/>
+      <c r="E188" s="39"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C189" s="20" t="s">
+      <c r="C189" s="41" t="s">
         <v>172</v>
       </c>
+      <c r="D189" s="39"/>
+      <c r="E189" s="39"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C190" s="20" t="s">
+      <c r="C190" s="41" t="s">
         <v>173</v>
       </c>
+      <c r="D190" s="39"/>
+      <c r="E190" s="39"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
@@ -4428,50 +4818,63 @@
       <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A193" s="24" t="s">
+      <c r="A193" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="23" t="s">
+      <c r="B193" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C193" s="30" t="s">
+      <c r="C193" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
+      <c r="D193" s="34"/>
+      <c r="E193" s="34"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C194" s="19" t="s">
+      <c r="C194" s="40" t="s">
         <v>175</v>
       </c>
+      <c r="D194" s="39"/>
+      <c r="E194" s="39"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C195" s="19" t="s">
+      <c r="C195" s="40" t="s">
         <v>176</v>
       </c>
+      <c r="D195" s="39"/>
+      <c r="E195" s="39"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C196" s="19" t="s">
+      <c r="C196" s="40" t="s">
         <v>177</v>
       </c>
+      <c r="D196" s="39"/>
+      <c r="E196" s="39"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C197" s="19" t="s">
+      <c r="C197" s="40" t="s">
         <v>178</v>
       </c>
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C198" s="19" t="s">
+      <c r="C198" s="14" t="s">
         <v>179</v>
       </c>
+      <c r="E198" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C199" s="19" t="s">
+      <c r="C199" s="40" t="s">
         <v>180</v>
       </c>
+      <c r="D199" s="39"/>
+      <c r="E199" s="39"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C200" s="20" t="s">
+      <c r="C200" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D200" t="s">
@@ -4482,12 +4885,15 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C201" s="20" t="s">
+      <c r="C201" s="15" t="s">
         <v>182</v>
       </c>
+      <c r="E201" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C202" s="20" t="s">
+      <c r="C202" s="15" t="s">
         <v>183</v>
       </c>
       <c r="D202" t="s">
@@ -4498,12 +4904,15 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C203" s="20" t="s">
+      <c r="C203" s="15" t="s">
         <v>184</v>
       </c>
+      <c r="E203" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C204" s="20" t="s">
+      <c r="C204" s="15" t="s">
         <v>185</v>
       </c>
       <c r="D204" t="s">
@@ -4514,12 +4923,14 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C205" s="21" t="s">
+      <c r="C205" s="42" t="s">
         <v>186</v>
       </c>
+      <c r="D205" s="39"/>
+      <c r="E205" s="43"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C206" s="20" t="s">
+      <c r="C206" s="15" t="s">
         <v>187</v>
       </c>
       <c r="D206" t="s">
@@ -4530,23 +4941,34 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C207" s="21" t="s">
+      <c r="C207" s="42" t="s">
         <v>186</v>
       </c>
+      <c r="D207" s="39"/>
+      <c r="E207" s="39"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C208" s="20" t="s">
+      <c r="C208" s="15" t="s">
         <v>188</v>
       </c>
+      <c r="E208" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C209" s="20" t="s">
+      <c r="C209" s="15" t="s">
         <v>189</v>
       </c>
+      <c r="E209" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C210" s="20" t="s">
+      <c r="C210" s="15" t="s">
         <v>190</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4563,25 +4985,27 @@
       <c r="E212" s="3"/>
     </row>
     <row r="213" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A213" s="24" t="s">
+      <c r="A213" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B213" s="23" t="s">
+      <c r="B213" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C213" s="30" t="s">
+      <c r="C213" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
+      <c r="D213" s="34"/>
+      <c r="E213" s="34"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C214" s="19" t="s">
+      <c r="C214" s="40" t="s">
         <v>199</v>
       </c>
+      <c r="D214" s="39"/>
+      <c r="E214" s="39"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C215" s="20" t="s">
+      <c r="C215" s="15" t="s">
         <v>200</v>
       </c>
       <c r="D215" t="s">
@@ -4592,7 +5016,7 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C216" s="20" t="s">
+      <c r="C216" s="15" t="s">
         <v>201</v>
       </c>
       <c r="D216" t="s">
@@ -4603,7 +5027,7 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C217" s="20" t="s">
+      <c r="C217" s="15" t="s">
         <v>202</v>
       </c>
       <c r="D217" t="s">
@@ -4614,7 +5038,7 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C218" s="20" t="s">
+      <c r="C218" s="15" t="s">
         <v>203</v>
       </c>
       <c r="D218" t="s">
@@ -4625,7 +5049,7 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C219" s="20" t="s">
+      <c r="C219" s="15" t="s">
         <v>204</v>
       </c>
       <c r="D219" t="s">
@@ -4636,7 +5060,7 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C220" s="20" t="s">
+      <c r="C220" s="15" t="s">
         <v>205</v>
       </c>
       <c r="D220" t="s">
@@ -4647,403 +5071,631 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C221" s="20" t="s">
+      <c r="C221" s="15" t="s">
         <v>206</v>
       </c>
+      <c r="E221" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C222" s="20" t="s">
+      <c r="C222" s="15" t="s">
         <v>207</v>
       </c>
+      <c r="E222" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C223" s="20" t="s">
+      <c r="C223" s="15" t="s">
         <v>208</v>
       </c>
+      <c r="E223" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C224" s="20" t="s">
+      <c r="C224" s="41" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C225" s="20" t="s">
+      <c r="D224" s="39"/>
+      <c r="E224" s="39"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C225" s="15" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C226" s="20" t="s">
+      <c r="E225" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F225" s="44"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C226" s="15" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E226" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
-      <c r="D228" s="26"/>
+      <c r="D228" s="19"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A229" s="24" t="s">
+    <row r="229" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A229" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B229" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C229" s="30" t="s">
+      <c r="B229" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C229" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C230" s="19" t="s">
+      <c r="D229" s="34"/>
+      <c r="E229" s="34"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C230" s="14" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C231" s="19" t="s">
+      <c r="E230" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C231" s="14" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C232" s="19" t="s">
+      <c r="E231" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C232" s="14" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C233" s="19" t="s">
+      <c r="E232" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C233" s="14" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C234" s="19" t="s">
+      <c r="E233" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C234" s="14" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C235" s="19" t="s">
+      <c r="E234" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C235" s="14" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C236" s="19" t="s">
+      <c r="E235" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C236" s="14" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C237" s="19" t="s">
+      <c r="E236" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C237" s="14" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C238" s="19" t="s">
+      <c r="E237" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C238" s="14" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C239" s="19" t="s">
+      <c r="E238" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C239" s="14" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C240" s="19" t="s">
+      <c r="E239" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C240" s="14" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" s="19" t="s">
+      <c r="E240" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C241" s="14" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" s="19" t="s">
+      <c r="E241" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C242" s="14" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243" s="19" t="s">
+      <c r="E242" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C243" s="14" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C244" s="19" t="s">
+      <c r="E243" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C244" s="14" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C245" s="19" t="s">
+      <c r="E244" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C245" s="14" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C246" s="19" t="s">
+      <c r="E245" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C246" s="14" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C247" s="19" t="s">
+      <c r="E246" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C247" s="14" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248" s="19" t="s">
+      <c r="E247" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C248" s="14" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C249" s="19" t="s">
+      <c r="E248" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="249" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C249" s="14" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C250" s="19" t="s">
+      <c r="E249" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="250" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C250" s="14" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C251" s="19" t="s">
+      <c r="E250" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="251" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C251" s="14" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C252" s="19" t="s">
+      <c r="E251" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="252" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C252" s="14" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C253" s="19" t="s">
+      <c r="E252" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="253" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C253" s="14" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C254" s="19" t="s">
+      <c r="E253" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="254" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C254" s="14" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C255" s="19" t="s">
+      <c r="E254" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="255" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C255" s="14" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C256" s="19" t="s">
+      <c r="E255" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="256" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C256" s="14" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C257" s="19" t="s">
+      <c r="E256" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="257" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C257" s="14" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C258" s="19" t="s">
+      <c r="E257" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="258" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C258" s="14" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C259" s="19" t="s">
+      <c r="E258" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="259" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C259" s="14" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C260" s="19" t="s">
+      <c r="E259" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="260" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C260" s="14" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C261" s="19" t="s">
+      <c r="E260" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="261" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C261" s="14" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C262" s="19" t="s">
+      <c r="E261" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="262" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C262" s="14" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C263" s="19" t="s">
+      <c r="E262" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="263" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C263" s="14" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C264" s="19" t="s">
+      <c r="E263" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="264" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C264" s="14" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C265" s="19" t="s">
+      <c r="E264" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="265" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C265" s="14" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C266" s="19" t="s">
+      <c r="E265" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="266" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C266" s="14" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C267" s="19" t="s">
+      <c r="E266" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="267" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C267" s="14" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C268" s="19" t="s">
+      <c r="E267" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="268" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C268" s="14" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C269" s="19" t="s">
+      <c r="E268" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="269" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C269" s="14" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C270" s="19" t="s">
+      <c r="E269" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="270" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C270" s="14" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C271" s="19" t="s">
+      <c r="E270" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="271" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C271" s="14" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C272" s="19" t="s">
+      <c r="E271" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="272" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C272" s="14" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C273" s="19" t="s">
+      <c r="D272" t="s">
+        <v>790</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C273" s="14" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274" s="19" t="s">
+      <c r="E273" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C274" s="14" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C275" s="19" t="s">
+      <c r="E274" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C275" s="14" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C276" s="19" t="s">
+      <c r="E275" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="276" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C276" s="14" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C277" s="19" t="s">
+      <c r="E276" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="277" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C277" s="14" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C278" s="19" t="s">
+      <c r="E277" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="278" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C278" s="14" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C279" s="19" t="s">
+      <c r="E278" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="279" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C279" s="14" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C280" s="19" t="s">
+      <c r="E279" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="280" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C280" s="14" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C281" s="19" t="s">
+      <c r="D280" t="s">
+        <v>791</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="281" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C281" s="14" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C282" s="19" t="s">
+      <c r="D281" t="s">
+        <v>791</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="282" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C282" s="14" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C283" s="19" t="s">
+      <c r="E282" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="283" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C283" s="14" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C284" s="19" t="s">
+      <c r="E283" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="284" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C284" s="14" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C285" s="19" t="s">
+      <c r="E284" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="285" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C285" s="14" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C286" s="19" t="s">
+      <c r="E285" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="286" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C286" s="14" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C287" s="19" t="s">
+      <c r="E286" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="287" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C287" s="14" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C288" s="19" t="s">
+      <c r="E287" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="288" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C288" s="14" t="s">
         <v>271</v>
       </c>
+      <c r="E288" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="289" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C289" s="19" t="s">
+      <c r="C289" s="14" t="s">
         <v>272</v>
       </c>
+      <c r="E289" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="290" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C290" s="19" t="s">
+      <c r="C290" s="14" t="s">
         <v>273</v>
       </c>
+      <c r="E290" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C291" s="19" t="s">
+      <c r="C291" s="14" t="s">
         <v>274</v>
       </c>
+      <c r="E291" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="292" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C292" s="19" t="s">
+      <c r="C292" s="14" t="s">
         <v>275</v>
       </c>
+      <c r="E292" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C293" s="19" t="s">
+      <c r="C293" s="14" t="s">
         <v>276</v>
       </c>
+      <c r="E293" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="294" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C294" s="19" t="s">
+      <c r="C294" s="14" t="s">
         <v>277</v>
       </c>
+      <c r="E294" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="295" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C295" s="20" t="s">
+      <c r="C295" s="41" t="s">
         <v>278</v>
       </c>
+      <c r="D295" s="39"/>
+      <c r="E295" s="39"/>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C296" s="21" t="s">
+      <c r="C296" s="42" t="s">
         <v>279</v>
       </c>
+      <c r="D296" s="39"/>
+      <c r="E296" s="39"/>
     </row>
     <row r="297" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C297" s="21" t="s">
+      <c r="C297" s="42" t="s">
         <v>280</v>
       </c>
+      <c r="D297" s="39"/>
+      <c r="E297" s="39"/>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C298" s="19" t="s">
+      <c r="C298" s="14" t="s">
         <v>281</v>
       </c>
       <c r="D298" t="s">
@@ -5054,7 +5706,7 @@
       </c>
     </row>
     <row r="299" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C299" s="19" t="s">
+      <c r="C299" s="14" t="s">
         <v>282</v>
       </c>
       <c r="D299" t="s">
@@ -5065,78 +5717,119 @@
       </c>
     </row>
     <row r="300" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C300" s="19" t="s">
+      <c r="C300" s="14" t="s">
         <v>283</v>
       </c>
+      <c r="E300" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="301" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C301" s="19" t="s">
+      <c r="C301" s="14" t="s">
         <v>284</v>
       </c>
+      <c r="E301" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C302" s="19" t="s">
+      <c r="C302" s="40" t="s">
         <v>285</v>
       </c>
+      <c r="D302" s="39"/>
+      <c r="E302" s="39"/>
     </row>
     <row r="303" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C303" s="20" t="s">
+      <c r="C303" s="15" t="s">
         <v>286</v>
       </c>
+      <c r="E303" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="304" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C304" s="19" t="s">
+      <c r="C304" s="14" t="s">
         <v>287</v>
       </c>
+      <c r="E304" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C305" s="19" t="s">
+      <c r="C305" s="40" t="s">
         <v>288</v>
       </c>
+      <c r="D305" s="39"/>
+      <c r="E305" s="39"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C306" s="20" t="s">
+      <c r="C306" s="15" t="s">
         <v>289</v>
       </c>
+      <c r="E306" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C307" s="19" t="s">
+      <c r="C307" s="14" t="s">
         <v>290</v>
       </c>
+      <c r="E307" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C308" s="19" t="s">
+      <c r="C308" s="40" t="s">
         <v>291</v>
       </c>
+      <c r="D308" s="39"/>
+      <c r="E308" s="39"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C309" s="20" t="s">
+      <c r="C309" s="15" t="s">
         <v>289</v>
       </c>
+      <c r="E309" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C310" s="20" t="s">
+      <c r="C310" s="15" t="s">
         <v>292</v>
       </c>
+      <c r="E310" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C311" s="19" t="s">
+      <c r="C311" s="40" t="s">
         <v>293</v>
       </c>
+      <c r="D311" s="39"/>
+      <c r="E311" s="39"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C312" s="20" t="s">
+      <c r="C312" s="15" t="s">
         <v>294</v>
       </c>
+      <c r="E312" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C313" s="20" t="s">
+      <c r="C313" s="15" t="s">
         <v>295</v>
       </c>
+      <c r="E313" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C314" s="20" t="s">
+      <c r="C314" s="15" t="s">
         <v>296</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -5153,120 +5846,143 @@
       <c r="E316" s="3"/>
     </row>
     <row r="317" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A317" s="24" t="s">
+      <c r="A317" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="B317" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C317" s="30" t="s">
+      <c r="B317" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C317" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="D317" s="5"/>
-      <c r="E317" s="5"/>
+      <c r="D317" s="34"/>
+      <c r="E317" s="34"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C318" s="19" t="s">
+      <c r="C318" s="14" t="s">
         <v>299</v>
       </c>
+      <c r="E318" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C319" s="19" t="s">
+      <c r="C319" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E319" s="4" t="s">
-        <v>12</v>
+      <c r="E319" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C320" s="19" t="s">
+      <c r="C320" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E320" s="4" t="s">
-        <v>12</v>
+      <c r="E320" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C321" s="19" t="s">
+      <c r="C321" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="E321" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="D321" s="39"/>
+      <c r="E321" s="43"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C322" s="19" t="s">
+      <c r="C322" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E322" s="4" t="s">
-        <v>12</v>
+      <c r="E322" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C323" s="20" t="s">
+      <c r="C323" s="15" t="s">
         <v>302</v>
       </c>
+      <c r="E323" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C324" s="20" t="s">
+      <c r="C324" s="15" t="s">
         <v>303</v>
       </c>
+      <c r="E324" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C325" s="20" t="s">
+      <c r="C325" s="15" t="s">
         <v>304</v>
       </c>
+      <c r="E325" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C326" s="19" t="s">
+      <c r="C326" s="14" t="s">
         <v>305</v>
       </c>
+      <c r="E326" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C327" s="19" t="s">
+      <c r="C327" s="14" t="s">
         <v>306</v>
       </c>
+      <c r="E327" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C328" s="19" t="s">
+      <c r="C328" s="14" t="s">
         <v>307</v>
       </c>
+      <c r="E328" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C329" s="19" t="s">
+      <c r="C329" s="14" t="s">
         <v>308</v>
       </c>
+      <c r="E329" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C330" s="19" t="s">
+      <c r="C330" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="E330" s="4" t="s">
-        <v>12</v>
+      <c r="E330" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C331" s="19" t="s">
+      <c r="C331" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="E331" s="4" t="s">
-        <v>12</v>
+      <c r="E331" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C332" s="19" t="s">
+      <c r="C332" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="E332" s="4" t="s">
-        <v>12</v>
+      <c r="E332" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C333" s="19" t="s">
+      <c r="C333" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="E333" s="4" t="s">
-        <v>12</v>
+      <c r="E333" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -5283,381 +5999,602 @@
       <c r="E335" s="3"/>
     </row>
     <row r="336" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="B336" s="23" t="s">
+      <c r="B336" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C336" s="30" t="s">
+      <c r="C336" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D336" s="5"/>
-      <c r="E336" s="5"/>
-    </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C337" s="19" t="s">
+      <c r="D336" s="34"/>
+      <c r="E336" s="34"/>
+    </row>
+    <row r="337" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C337" s="14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C338" s="19" t="s">
+      <c r="E337" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="338" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C338" s="14" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C339" s="19" t="s">
+      <c r="E338" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="339" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C339" s="14" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C340" s="19" t="s">
+      <c r="E339" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="340" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C340" s="14" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C341" s="19" t="s">
+      <c r="E340" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="341" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C341" s="40" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C342" s="20" t="s">
+      <c r="D341" s="39"/>
+      <c r="E341" s="39"/>
+    </row>
+    <row r="342" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C342" s="15" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C343" s="20" t="s">
+      <c r="E342" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="343" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C343" s="15" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C344" s="20" t="s">
+      <c r="E343" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="344" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C344" s="15" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C345" s="20" t="s">
+      <c r="E344" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="345" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C345" s="15" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C346" s="20" t="s">
+      <c r="E345" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="346" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C346" s="15" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C347" s="20" t="s">
+      <c r="E346" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="347" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C347" s="15" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C348" s="20" t="s">
+      <c r="E347" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="348" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C348" s="15" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C349" s="20" t="s">
+      <c r="E348" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="349" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C349" s="15" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C350" s="20" t="s">
+      <c r="D349" t="s">
+        <v>792</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C350" s="15" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C351" s="20" t="s">
+      <c r="E350" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="351" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C351" s="15" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C352" s="20" t="s">
+      <c r="E351" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="352" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C352" s="15" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" s="20" t="s">
+      <c r="E352" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="353" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C353" s="15" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C354" s="20" t="s">
+      <c r="E353" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="354" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C354" s="15" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="20" t="s">
+      <c r="E354" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="355" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C355" s="15" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="19" t="s">
+      <c r="E355" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="356" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C356" s="40" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C357" s="20" t="s">
+      <c r="D356" s="39"/>
+      <c r="E356" s="39"/>
+    </row>
+    <row r="357" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C357" s="15" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C358" s="20" t="s">
+      <c r="E357" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="358" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C358" s="15" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C359" s="20" t="s">
+      <c r="E358" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="359" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C359" s="15" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C360" s="20" t="s">
+      <c r="E359" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="360" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C360" s="15" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C361" s="20" t="s">
+      <c r="E360" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="361" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C361" s="15" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C362" s="20" t="s">
+      <c r="E361" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="362" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C362" s="15" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C363" s="20" t="s">
+      <c r="E362" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="363" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C363" s="15" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C364" s="20" t="s">
+      <c r="E363" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="364" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C364" s="15" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C365" s="20" t="s">
+      <c r="E364" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="365" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C365" s="15" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C366" s="20" t="s">
+      <c r="E365" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="366" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C366" s="15" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C367" s="20" t="s">
+      <c r="E366" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="367" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C367" s="15" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C368" s="20" t="s">
+      <c r="E367" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="368" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C368" s="15" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C369" s="20" t="s">
+      <c r="E368" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="369" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C369" s="15" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C370" s="20" t="s">
+      <c r="E369" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="370" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C370" s="15" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C371" s="20" t="s">
+      <c r="E370" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="371" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C371" s="15" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C372" s="19" t="s">
+      <c r="E371" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="372" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C372" s="14" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C373" s="19" t="s">
+      <c r="E372" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="373" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C373" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C374" s="19" t="s">
+      <c r="E373" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="374" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C374" s="40" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C375" s="20" t="s">
+      <c r="D374" s="39"/>
+      <c r="E374" s="39"/>
+    </row>
+    <row r="375" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C375" s="15" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C376" s="20" t="s">
+      <c r="D375" t="s">
+        <v>792</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C376" s="15" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C377" s="20" t="s">
+      <c r="E376" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="377" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C377" s="15" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C378" s="20" t="s">
+      <c r="E377" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="378" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C378" s="15" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C379" s="20" t="s">
+      <c r="E378" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="379" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C379" s="15" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C380" s="20" t="s">
+      <c r="E379" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="380" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C380" s="15" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C381" s="20" t="s">
+      <c r="E380" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="381" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C381" s="15" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C382" s="20" t="s">
+      <c r="E381" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="382" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C382" s="15" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C383" s="19" t="s">
+      <c r="E382" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="383" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C383" s="14" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C384" s="19" t="s">
+      <c r="E383" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="384" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C384" s="40" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C385" s="20" t="s">
+      <c r="D384" s="39"/>
+      <c r="E384" s="39"/>
+    </row>
+    <row r="385" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C385" s="15" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C386" s="20" t="s">
+      <c r="E385" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="386" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C386" s="15" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C387" s="20" t="s">
+      <c r="E386" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="387" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C387" s="15" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C388" s="20" t="s">
+      <c r="E387" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="388" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C388" s="15" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C389" s="20" t="s">
+      <c r="E388" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="389" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C389" s="15" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C390" s="20" t="s">
+      <c r="E389" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="390" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C390" s="15" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C391" s="20" t="s">
+      <c r="E390" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="391" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C391" s="15" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C392" s="20" t="s">
+      <c r="E391" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="392" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C392" s="15" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C393" s="20" t="s">
+      <c r="E392" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="393" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C393" s="15" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C394" s="20" t="s">
+      <c r="E393" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="394" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C394" s="15" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C395" s="20" t="s">
+      <c r="E394" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="395" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C395" s="15" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C396" s="20" t="s">
+      <c r="E395" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="396" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C396" s="15" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C397" s="19" t="s">
+      <c r="E396" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="397" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C397" s="14" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C398" s="20" t="s">
+      <c r="E397" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="398" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C398" s="15" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C399" s="20" t="s">
+      <c r="E398" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="399" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C399" s="15" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C400" s="20" t="s">
+      <c r="E399" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="400" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C400" s="15" t="s">
         <v>373</v>
       </c>
+      <c r="E400" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C401" s="20" t="s">
+      <c r="C401" s="15" t="s">
         <v>374</v>
       </c>
+      <c r="E401" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C402" s="20" t="s">
+      <c r="C402" s="15" t="s">
         <v>375</v>
       </c>
+      <c r="E402" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C403" s="20" t="s">
+      <c r="C403" s="15" t="s">
         <v>376</v>
       </c>
+      <c r="E403" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C404" s="20" t="s">
+      <c r="C404" s="15" t="s">
         <v>377</v>
       </c>
+      <c r="E404" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C405" s="20" t="s">
+      <c r="C405" s="15" t="s">
         <v>378</v>
       </c>
+      <c r="E405" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C406" s="20" t="s">
+      <c r="C406" s="15" t="s">
         <v>379</v>
       </c>
+      <c r="E406" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C407" s="20" t="s">
+      <c r="C407" s="15" t="s">
         <v>380</v>
       </c>
+      <c r="E407" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C408" s="20" t="s">
+      <c r="C408" s="15" t="s">
         <v>381</v>
       </c>
+      <c r="E408" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C409" s="20" t="s">
+      <c r="C409" s="15" t="s">
         <v>382</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -5674,76 +6611,111 @@
       <c r="E411" s="3"/>
     </row>
     <row r="412" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A412" s="24" t="s">
+      <c r="A412" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="B412" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C412" s="30" t="s">
+      <c r="B412" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C412" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
+      <c r="D412" s="34"/>
+      <c r="E412" s="34"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C413" s="19" t="s">
+      <c r="C413" s="40" t="s">
         <v>384</v>
       </c>
+      <c r="D413" s="39"/>
+      <c r="E413" s="39"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C414" s="20" t="s">
+      <c r="C414" s="15" t="s">
         <v>331</v>
       </c>
+      <c r="E414" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C415" s="20" t="s">
+      <c r="C415" s="15" t="s">
         <v>332</v>
       </c>
+      <c r="E415" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C416" s="19" t="s">
+      <c r="C416" s="14" t="s">
         <v>385</v>
       </c>
+      <c r="E416" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C417" s="20" t="s">
+      <c r="C417" s="15" t="s">
         <v>386</v>
       </c>
+      <c r="E417" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C418" s="20" t="s">
+      <c r="C418" s="15" t="s">
         <v>327</v>
       </c>
+      <c r="E418" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C419" s="20" t="s">
+      <c r="C419" s="15" t="s">
         <v>328</v>
       </c>
+      <c r="E419" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C420" s="20" t="s">
+      <c r="C420" s="15" t="s">
         <v>329</v>
       </c>
+      <c r="E420" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C421" s="19" t="s">
+      <c r="C421" s="14" t="s">
         <v>387</v>
       </c>
+      <c r="E421" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C422" s="19" t="s">
+      <c r="C422" s="14" t="s">
         <v>388</v>
       </c>
+      <c r="E422" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C423" s="19" t="s">
+      <c r="C423" s="14" t="s">
         <v>389</v>
       </c>
+      <c r="E423" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C424" s="19" t="s">
+      <c r="C424" s="14" t="s">
         <v>390</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -5754,60 +6726,76 @@
       <c r="E425" s="5"/>
     </row>
     <row r="427" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A427" s="24" t="s">
+      <c r="A427" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="B427" s="23" t="s">
+      <c r="B427" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C427" s="30" t="s">
+      <c r="C427" s="37" t="s">
         <v>391</v>
       </c>
-      <c r="D427" s="5"/>
-      <c r="E427" s="5"/>
+      <c r="D427" s="34"/>
+      <c r="E427" s="34"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C428" s="19" t="s">
+      <c r="C428" s="40" t="s">
         <v>392</v>
       </c>
+      <c r="D428" s="39"/>
+      <c r="E428" s="39"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C429" s="19" t="s">
+      <c r="C429" s="40" t="s">
         <v>393</v>
       </c>
+      <c r="D429" s="39"/>
+      <c r="E429" s="39"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C430" s="19" t="s">
+      <c r="C430" s="40" t="s">
         <v>394</v>
       </c>
+      <c r="D430" s="39"/>
+      <c r="E430" s="39"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C431" s="19" t="s">
+      <c r="C431" s="40" t="s">
         <v>395</v>
       </c>
+      <c r="D431" s="39"/>
+      <c r="E431" s="39"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C432" s="19" t="s">
+      <c r="C432" s="40" t="s">
         <v>396</v>
       </c>
+      <c r="D432" s="39"/>
+      <c r="E432" s="39"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C433" s="19" t="s">
+      <c r="C433" s="40" t="s">
         <v>397</v>
       </c>
+      <c r="D433" s="39"/>
+      <c r="E433" s="39"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C434" s="20" t="s">
+      <c r="C434" s="41" t="s">
         <v>398</v>
       </c>
+      <c r="D434" s="39"/>
+      <c r="E434" s="39"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C435" s="19" t="s">
+      <c r="C435" s="40" t="s">
         <v>399</v>
       </c>
+      <c r="D435" s="39"/>
+      <c r="E435" s="39"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C436" s="20" t="s">
+      <c r="C436" s="15" t="s">
         <v>400</v>
       </c>
       <c r="D436" t="s">
@@ -5818,17 +6806,23 @@
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C437" s="21" t="s">
+      <c r="C437" s="16" t="s">
         <v>401</v>
       </c>
+      <c r="E437" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C438" s="20" t="s">
+      <c r="C438" s="15" t="s">
         <v>402</v>
       </c>
+      <c r="E438" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C439" s="20" t="s">
+      <c r="C439" s="15" t="s">
         <v>403</v>
       </c>
       <c r="D439" t="s">
@@ -5839,22 +6833,31 @@
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C440" s="20" t="s">
+      <c r="C440" s="15" t="s">
         <v>404</v>
       </c>
+      <c r="E440" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C441" s="20" t="s">
+      <c r="C441" s="15" t="s">
         <v>405</v>
       </c>
+      <c r="E441" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C442" s="20" t="s">
+      <c r="C442" s="15" t="s">
         <v>406</v>
       </c>
+      <c r="E442" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C443" s="20" t="s">
+      <c r="C443" s="15" t="s">
         <v>407</v>
       </c>
       <c r="D443" t="s">
@@ -5865,24 +6868,32 @@
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C444" s="19" t="s">
+      <c r="C444" s="40" t="s">
         <v>408</v>
       </c>
+      <c r="D444" s="39"/>
+      <c r="E444" s="39"/>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C445" s="19" t="s">
+      <c r="C445" s="40" t="s">
         <v>409</v>
       </c>
+      <c r="D445" s="39"/>
+      <c r="E445" s="39"/>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C446" s="19" t="s">
+      <c r="C446" s="40" t="s">
         <v>410</v>
       </c>
+      <c r="D446" s="39"/>
+      <c r="E446" s="39"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C447" s="19" t="s">
+      <c r="C447" s="40" t="s">
         <v>411</v>
       </c>
+      <c r="D447" s="39"/>
+      <c r="E447" s="39"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="5"/>
@@ -5892,20 +6903,20 @@
       <c r="E448" s="5"/>
     </row>
     <row r="450" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A450" s="24" t="s">
-        <v>780</v>
-      </c>
-      <c r="B450" s="23" t="s">
+      <c r="A450" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="B450" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C450" s="30" t="s">
+      <c r="C450" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="D450" s="5"/>
-      <c r="E450" s="5"/>
+      <c r="D450" s="34"/>
+      <c r="E450" s="34"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C451" s="19" t="s">
+      <c r="C451" s="14" t="s">
         <v>413</v>
       </c>
       <c r="D451" t="s">
@@ -5916,42 +6927,62 @@
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C452" s="19" t="s">
+      <c r="C452" s="14" t="s">
         <v>414</v>
       </c>
+      <c r="E452" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C453" s="19" t="s">
+      <c r="C453" s="14" t="s">
         <v>415</v>
       </c>
+      <c r="E453" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C454" s="19" t="s">
+      <c r="C454" s="14" t="s">
         <v>416</v>
       </c>
+      <c r="E454" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C455" s="19" t="s">
+      <c r="C455" s="14" t="s">
         <v>417</v>
       </c>
+      <c r="E455" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C456" s="19" t="s">
+      <c r="C456" s="14" t="s">
         <v>418</v>
       </c>
+      <c r="E456" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C457" s="19" t="s">
+      <c r="C457" s="14" t="s">
         <v>419</v>
       </c>
+      <c r="E457" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C458" s="19" t="s">
+      <c r="C458" s="40" t="s">
         <v>420</v>
       </c>
+      <c r="D458" s="39"/>
+      <c r="E458" s="39"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C459" s="20" t="s">
+      <c r="C459" s="15" t="s">
         <v>386</v>
       </c>
       <c r="D459" t="s">
@@ -5962,22 +6993,31 @@
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C460" s="20" t="s">
+      <c r="C460" s="15" t="s">
         <v>327</v>
       </c>
+      <c r="E460" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C461" s="20" t="s">
+      <c r="C461" s="15" t="s">
         <v>328</v>
       </c>
+      <c r="E461" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C462" s="20" t="s">
+      <c r="C462" s="15" t="s">
         <v>421</v>
       </c>
+      <c r="E462" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C463" s="20" t="s">
+      <c r="C463" s="15" t="s">
         <v>329</v>
       </c>
       <c r="D463" t="s">
@@ -5988,62 +7028,94 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C464" s="20" t="s">
+      <c r="C464" s="15" t="s">
         <v>422</v>
       </c>
+      <c r="E464" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="465" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C465" s="20" t="s">
+      <c r="C465" s="15" t="s">
         <v>423</v>
       </c>
+      <c r="E465" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="466" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C466" s="20" t="s">
+      <c r="C466" s="15" t="s">
         <v>424</v>
       </c>
+      <c r="E466" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="467" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C467" s="20" t="s">
+      <c r="C467" s="15" t="s">
         <v>425</v>
       </c>
+      <c r="E467" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C468" s="20" t="s">
+      <c r="C468" s="15" t="s">
         <v>426</v>
       </c>
+      <c r="E468" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C469" s="20" t="s">
+      <c r="C469" s="15" t="s">
         <v>427</v>
       </c>
+      <c r="E469" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="470" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C470" s="20" t="s">
+      <c r="C470" s="15" t="s">
         <v>428</v>
       </c>
+      <c r="E470" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="471" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C471" s="20" t="s">
+      <c r="C471" s="15" t="s">
         <v>320</v>
       </c>
+      <c r="E471" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="472" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C472" s="20" t="s">
+      <c r="C472" s="15" t="s">
         <v>321</v>
       </c>
+      <c r="E472" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="473" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C473" s="20" t="s">
+      <c r="C473" s="15" t="s">
         <v>296</v>
       </c>
+      <c r="E473" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="474" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C474" s="19" t="s">
+      <c r="C474" s="40" t="s">
         <v>429</v>
       </c>
+      <c r="D474" s="39"/>
+      <c r="E474" s="39"/>
     </row>
     <row r="475" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C475" s="20" t="s">
+      <c r="C475" s="15" t="s">
         <v>430</v>
       </c>
       <c r="D475" t="s">
@@ -6054,37 +7126,55 @@
       </c>
     </row>
     <row r="476" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C476" s="20" t="s">
+      <c r="C476" s="15" t="s">
         <v>431</v>
       </c>
+      <c r="E476" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="477" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C477" s="20" t="s">
+      <c r="C477" s="15" t="s">
         <v>432</v>
       </c>
+      <c r="E477" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="478" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C478" s="20" t="s">
+      <c r="C478" s="15" t="s">
         <v>433</v>
       </c>
+      <c r="E478" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="479" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C479" s="20" t="s">
+      <c r="C479" s="15" t="s">
         <v>434</v>
       </c>
+      <c r="E479" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C480" s="20" t="s">
+      <c r="C480" s="15" t="s">
         <v>435</v>
       </c>
+      <c r="E480" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="481" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C481" s="20" t="s">
+      <c r="C481" s="15" t="s">
         <v>436</v>
       </c>
+      <c r="E481" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C482" s="20" t="s">
+      <c r="C482" s="15" t="s">
         <v>437</v>
       </c>
       <c r="D482" t="s">
@@ -6095,17 +7185,23 @@
       </c>
     </row>
     <row r="483" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C483" s="20" t="s">
+      <c r="C483" s="15" t="s">
         <v>438</v>
       </c>
+      <c r="E483" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C484" s="20" t="s">
+      <c r="C484" s="15" t="s">
         <v>439</v>
       </c>
+      <c r="E484" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="485" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C485" s="20" t="s">
+      <c r="C485" s="15" t="s">
         <v>440</v>
       </c>
       <c r="D485" t="s">
@@ -6116,118 +7212,187 @@
       </c>
     </row>
     <row r="486" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C486" s="20" t="s">
+      <c r="C486" s="15" t="s">
         <v>441</v>
       </c>
+      <c r="E486" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="487" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C487" s="20" t="s">
+      <c r="C487" s="15" t="s">
         <v>442</v>
       </c>
+      <c r="E487" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="488" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C488" s="20" t="s">
+      <c r="C488" s="15" t="s">
         <v>443</v>
       </c>
+      <c r="E488" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="489" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C489" s="20" t="s">
+      <c r="C489" s="15" t="s">
         <v>444</v>
       </c>
+      <c r="E489" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="490" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C490" s="20" t="s">
+      <c r="C490" s="15" t="s">
         <v>445</v>
       </c>
+      <c r="E490" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="491" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C491" s="20" t="s">
+      <c r="C491" s="15" t="s">
         <v>446</v>
       </c>
+      <c r="E491" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="492" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C492" s="20" t="s">
+      <c r="C492" s="15" t="s">
         <v>447</v>
       </c>
+      <c r="E492" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="493" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C493" s="20" t="s">
+      <c r="C493" s="15" t="s">
         <v>448</v>
       </c>
+      <c r="E493" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="494" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C494" s="20" t="s">
+      <c r="C494" s="15" t="s">
         <v>449</v>
       </c>
+      <c r="E494" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="495" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C495" s="20" t="s">
+      <c r="C495" s="15" t="s">
         <v>450</v>
       </c>
+      <c r="E495" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="496" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C496" s="20" t="s">
+      <c r="C496" s="15" t="s">
         <v>451</v>
       </c>
+      <c r="E496" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C497" s="20" t="s">
+      <c r="C497" s="15" t="s">
         <v>452</v>
       </c>
+      <c r="E497" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C498" s="20" t="s">
+      <c r="C498" s="15" t="s">
         <v>453</v>
       </c>
+      <c r="E498" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C499" s="20" t="s">
+      <c r="C499" s="15" t="s">
         <v>323</v>
       </c>
+      <c r="E499" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C500" s="20" t="s">
+      <c r="C500" s="15" t="s">
         <v>454</v>
       </c>
+      <c r="E500" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C501" s="20" t="s">
+      <c r="C501" s="15" t="s">
         <v>455</v>
       </c>
+      <c r="E501" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C502" s="20" t="s">
+      <c r="C502" s="15" t="s">
         <v>456</v>
       </c>
+      <c r="E502" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C503" s="20" t="s">
+      <c r="C503" s="15" t="s">
         <v>457</v>
       </c>
+      <c r="E503" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C504" s="20" t="s">
+      <c r="C504" s="15" t="s">
         <v>296</v>
       </c>
+      <c r="E504" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C505" s="20" t="s">
+      <c r="C505" s="15" t="s">
         <v>321</v>
       </c>
+      <c r="E505" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C506" s="19" t="s">
+      <c r="C506" s="14" t="s">
         <v>458</v>
       </c>
+      <c r="E506" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C507" s="19" t="s">
+      <c r="C507" s="14" t="s">
         <v>459</v>
       </c>
+      <c r="E507" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C508" s="19" t="s">
+      <c r="C508" s="14" t="s">
         <v>460</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -6238,25 +7403,28 @@
       <c r="E509" s="5"/>
     </row>
     <row r="511" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A511" s="24" t="s">
-        <v>773</v>
-      </c>
-      <c r="B511" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C511" s="30" t="s">
+      <c r="A511" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C511" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="D511" s="5"/>
-      <c r="E511" s="5"/>
+      <c r="D511" s="34"/>
+      <c r="E511" s="34"/>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C512" s="19" t="s">
+      <c r="C512" s="14" t="s">
         <v>462</v>
       </c>
+      <c r="E512" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C513" s="19" t="s">
+      <c r="C513" s="14" t="s">
         <v>463</v>
       </c>
       <c r="D513" t="s">
@@ -6267,7 +7435,7 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C514" s="19" t="s">
+      <c r="C514" s="14" t="s">
         <v>464</v>
       </c>
       <c r="D514" t="s">
@@ -6278,64 +7446,94 @@
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C515" s="19" t="s">
+      <c r="C515" s="14" t="s">
         <v>465</v>
       </c>
+      <c r="E515" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C516" s="19" t="s">
+      <c r="C516" s="14" t="s">
         <v>466</v>
       </c>
+      <c r="E516" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C517" s="19" t="s">
+      <c r="C517" s="14" t="s">
         <v>467</v>
       </c>
+      <c r="E517" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C518" s="19" t="s">
+      <c r="C518" s="14" t="s">
         <v>468</v>
       </c>
+      <c r="E518" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C519" s="19" t="s">
+      <c r="C519" s="14" t="s">
         <v>469</v>
       </c>
       <c r="D519" t="s">
         <v>754</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>76</v>
+        <v>787</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C520" s="19" t="s">
+      <c r="C520" s="14" t="s">
         <v>470</v>
       </c>
+      <c r="E520" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C521" s="19" t="s">
+      <c r="C521" s="14" t="s">
         <v>471</v>
       </c>
+      <c r="E521" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C522" s="19" t="s">
+      <c r="C522" s="14" t="s">
         <v>472</v>
       </c>
+      <c r="E522" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C523" s="19" t="s">
+      <c r="C523" s="14" t="s">
         <v>473</v>
       </c>
+      <c r="E523" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C524" s="19" t="s">
+      <c r="C524" s="14" t="s">
         <v>474</v>
       </c>
+      <c r="E524" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C525" s="19" t="s">
+      <c r="C525" s="14" t="s">
         <v>475</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -6346,20 +7544,20 @@
       <c r="E526" s="5"/>
     </row>
     <row r="528" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A528" s="24" t="s">
+      <c r="A528" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="B528" s="23" t="s">
+      <c r="B528" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C528" s="30" t="s">
+      <c r="C528" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="D528" s="5"/>
-      <c r="E528" s="5"/>
+      <c r="D528" s="34"/>
+      <c r="E528" s="34"/>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C529" s="19" t="s">
+      <c r="C529" s="14" t="s">
         <v>477</v>
       </c>
       <c r="D529" t="s">
@@ -6370,7 +7568,7 @@
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C530" s="19" t="s">
+      <c r="C530" s="14" t="s">
         <v>478</v>
       </c>
       <c r="D530" t="s">
@@ -6381,7 +7579,7 @@
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C531" s="19" t="s">
+      <c r="C531" s="14" t="s">
         <v>479</v>
       </c>
       <c r="D531" t="s">
@@ -6392,7 +7590,7 @@
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C532" s="19" t="s">
+      <c r="C532" s="14" t="s">
         <v>480</v>
       </c>
       <c r="D532" t="s">
@@ -6403,7 +7601,7 @@
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C533" s="19" t="s">
+      <c r="C533" s="14" t="s">
         <v>481</v>
       </c>
       <c r="D533" t="s">
@@ -6414,7 +7612,7 @@
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C534" s="19" t="s">
+      <c r="C534" s="14" t="s">
         <v>482</v>
       </c>
       <c r="D534" t="s">
@@ -6425,7 +7623,7 @@
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C535" s="19" t="s">
+      <c r="C535" s="14" t="s">
         <v>483</v>
       </c>
       <c r="D535" t="s">
@@ -6436,7 +7634,7 @@
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C536" s="19" t="s">
+      <c r="C536" s="14" t="s">
         <v>484</v>
       </c>
       <c r="D536" t="s">
@@ -6447,7 +7645,7 @@
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C537" s="19" t="s">
+      <c r="C537" s="14" t="s">
         <v>485</v>
       </c>
       <c r="D537" t="s">
@@ -6458,7 +7656,7 @@
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C538" s="19" t="s">
+      <c r="C538" s="14" t="s">
         <v>486</v>
       </c>
       <c r="D538" t="s">
@@ -6469,7 +7667,7 @@
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C539" s="19" t="s">
+      <c r="C539" s="14" t="s">
         <v>487</v>
       </c>
       <c r="D539" t="s">
@@ -6480,7 +7678,7 @@
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C540" s="19" t="s">
+      <c r="C540" s="14" t="s">
         <v>488</v>
       </c>
       <c r="D540" t="s">
@@ -6491,7 +7689,7 @@
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C541" s="19" t="s">
+      <c r="C541" s="14" t="s">
         <v>489</v>
       </c>
       <c r="D541" t="s">
@@ -6502,7 +7700,7 @@
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C542" s="19" t="s">
+      <c r="C542" s="14" t="s">
         <v>490</v>
       </c>
       <c r="D542" t="s">
@@ -6520,95 +7718,140 @@
       <c r="E543" s="5"/>
     </row>
     <row r="545" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A545" s="24" t="s">
-        <v>774</v>
-      </c>
-      <c r="B545" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C545" s="30" t="s">
+      <c r="A545" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="B545" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C545" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="D545" s="5"/>
-      <c r="E545" s="5"/>
+      <c r="D545" s="34"/>
+      <c r="E545" s="34"/>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C546" s="19" t="s">
+      <c r="C546" s="14" t="s">
         <v>491</v>
       </c>
+      <c r="E546" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C547" s="19" t="s">
+      <c r="C547" s="14" t="s">
         <v>492</v>
       </c>
+      <c r="E547" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C548" s="19" t="s">
+      <c r="C548" s="14" t="s">
         <v>493</v>
       </c>
+      <c r="E548" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C549" s="19" t="s">
+      <c r="C549" s="14" t="s">
         <v>494</v>
       </c>
+      <c r="E549" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C550" s="19" t="s">
+      <c r="C550" s="14" t="s">
         <v>495</v>
       </c>
+      <c r="E550" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C551" s="19" t="s">
+      <c r="C551" s="14" t="s">
         <v>496</v>
       </c>
+      <c r="E551" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C552" s="19" t="s">
+      <c r="C552" s="14" t="s">
         <v>497</v>
       </c>
+      <c r="E552" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C553" s="19" t="s">
+      <c r="C553" s="14" t="s">
         <v>498</v>
       </c>
+      <c r="E553" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C554" s="19" t="s">
+      <c r="C554" s="14" t="s">
         <v>499</v>
       </c>
+      <c r="E554" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C555" s="19" t="s">
+      <c r="C555" s="14" t="s">
         <v>500</v>
       </c>
+      <c r="E555" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C556" s="19" t="s">
+      <c r="C556" s="14" t="s">
         <v>501</v>
       </c>
+      <c r="E556" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C557" s="19" t="s">
+      <c r="C557" s="14" t="s">
         <v>502</v>
       </c>
+      <c r="E557" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C558" s="19" t="s">
+      <c r="C558" s="14" t="s">
         <v>503</v>
       </c>
+      <c r="E558" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C559" s="19" t="s">
+      <c r="C559" s="14" t="s">
         <v>504</v>
       </c>
+      <c r="E559" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C560" s="19" t="s">
+      <c r="C560" s="14" t="s">
         <v>505</v>
       </c>
+      <c r="E560" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="561" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C561" s="19" t="s">
+      <c r="C561" s="14" t="s">
         <v>506</v>
       </c>
       <c r="D561" t="s">
@@ -6619,92 +7862,143 @@
       </c>
     </row>
     <row r="562" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C562" s="19" t="s">
+      <c r="C562" s="14" t="s">
         <v>507</v>
       </c>
+      <c r="E562" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="563" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C563" s="19" t="s">
+      <c r="C563" s="14" t="s">
         <v>508</v>
       </c>
+      <c r="E563" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="564" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C564" s="19" t="s">
+      <c r="C564" s="14" t="s">
         <v>509</v>
       </c>
+      <c r="E564" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="565" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C565" s="19" t="s">
+      <c r="C565" s="14" t="s">
         <v>510</v>
       </c>
+      <c r="E565" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="566" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C566" s="19" t="s">
+      <c r="C566" s="14" t="s">
         <v>511</v>
       </c>
+      <c r="E566" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="567" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C567" s="19" t="s">
+      <c r="C567" s="14" t="s">
         <v>512</v>
       </c>
+      <c r="E567" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="568" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C568" s="19" t="s">
+      <c r="C568" s="14" t="s">
         <v>513</v>
       </c>
+      <c r="E568" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="569" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C569" s="19" t="s">
+      <c r="C569" s="14" t="s">
         <v>514</v>
       </c>
+      <c r="E569" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="570" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C570" s="19" t="s">
+      <c r="C570" s="14" t="s">
         <v>515</v>
       </c>
+      <c r="E570" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="571" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C571" s="19" t="s">
+      <c r="C571" s="14" t="s">
         <v>516</v>
       </c>
+      <c r="E571" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="572" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C572" s="19" t="s">
+      <c r="C572" s="14" t="s">
         <v>517</v>
       </c>
+      <c r="E572" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="573" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C573" s="19" t="s">
+      <c r="C573" s="14" t="s">
         <v>518</v>
       </c>
+      <c r="E573" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="574" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C574" s="19" t="s">
+      <c r="C574" s="14" t="s">
         <v>519</v>
       </c>
+      <c r="E574" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="575" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C575" s="19" t="s">
+      <c r="C575" s="14" t="s">
         <v>520</v>
       </c>
+      <c r="E575" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="576" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C576" s="19" t="s">
+      <c r="C576" s="14" t="s">
         <v>521</v>
       </c>
+      <c r="E576" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C577" s="19" t="s">
+      <c r="C577" s="14" t="s">
         <v>522</v>
       </c>
+      <c r="E577" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C578" s="19" t="s">
+      <c r="C578" s="14" t="s">
         <v>523</v>
       </c>
+      <c r="E578" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C579" s="19" t="s">
+      <c r="C579" s="14" t="s">
         <v>524</v>
       </c>
       <c r="D579" t="s">
@@ -6715,47 +8009,59 @@
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C580" s="19" t="s">
+      <c r="C580" s="14" t="s">
         <v>525</v>
       </c>
+      <c r="E580" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C581" s="19" t="s">
+      <c r="C581" s="14" t="s">
         <v>526</v>
       </c>
+      <c r="E581" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C582" s="19" t="s">
+      <c r="C582" s="14" t="s">
         <v>527</v>
       </c>
+      <c r="E582" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C583" s="19" t="s">
+      <c r="C583" s="14" t="s">
         <v>528</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
-      <c r="C584" s="40"/>
+      <c r="C584" s="28"/>
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
     </row>
     <row r="586" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A586" s="24" t="s">
-        <v>775</v>
-      </c>
-      <c r="B586" s="23" t="s">
+      <c r="A586" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="B586" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C586" s="30" t="s">
+      <c r="C586" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="D586" s="5"/>
-      <c r="E586" s="5"/>
+      <c r="D586" s="34"/>
+      <c r="E586" s="34"/>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C587" s="19" t="s">
+      <c r="C587" s="14" t="s">
         <v>530</v>
       </c>
       <c r="D587" t="s">
@@ -6766,7 +8072,7 @@
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C588" s="19" t="s">
+      <c r="C588" s="14" t="s">
         <v>531</v>
       </c>
       <c r="D588" t="s">
@@ -6777,27 +8083,39 @@
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C589" s="19" t="s">
+      <c r="C589" s="14" t="s">
         <v>532</v>
       </c>
+      <c r="E589" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C590" s="19" t="s">
+      <c r="C590" s="14" t="s">
         <v>533</v>
       </c>
+      <c r="E590" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C591" s="19" t="s">
+      <c r="C591" s="14" t="s">
         <v>534</v>
       </c>
+      <c r="E591" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C592" s="20" t="s">
+      <c r="C592" s="15" t="s">
         <v>535</v>
       </c>
+      <c r="E592" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C593" s="20" t="s">
+      <c r="C593" s="15" t="s">
         <v>536</v>
       </c>
       <c r="D593" t="s">
@@ -6808,8 +8126,11 @@
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C594" s="19" t="s">
+      <c r="C594" s="14" t="s">
         <v>537</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -6820,36 +8141,48 @@
       <c r="E595" s="5"/>
     </row>
     <row r="597" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A597" s="24" t="s">
-        <v>781</v>
-      </c>
-      <c r="B597" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C597" s="30" t="s">
+      <c r="A597" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="B597" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C597" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="D597" s="5"/>
-      <c r="E597" s="5"/>
+      <c r="D597" s="34"/>
+      <c r="E597" s="34"/>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C598" s="19" t="s">
+      <c r="C598" s="14" t="s">
         <v>539</v>
       </c>
+      <c r="E598" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C599" s="19" t="s">
+      <c r="C599" s="14" t="s">
         <v>540</v>
       </c>
+      <c r="E599" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C600" s="19" t="s">
+      <c r="C600" s="14" t="s">
         <v>541</v>
       </c>
+      <c r="E600" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C601" s="19" t="s">
+      <c r="C601" s="14" t="s">
         <v>542</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -6860,15 +8193,21 @@
       <c r="E602" s="5"/>
     </row>
     <row r="604" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A604" s="24" t="s">
+      <c r="A604" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="B604" s="15" t="s">
+      <c r="B604" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C604" s="5"/>
-      <c r="D604" s="5"/>
-      <c r="E604" s="11"/>
+      <c r="C604" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="D604" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="E604" s="9" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="5"/>
@@ -6878,20 +8217,20 @@
       <c r="E605" s="5"/>
     </row>
     <row r="607" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A607" s="24" t="s">
+      <c r="A607" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="B607" s="23" t="s">
+      <c r="B607" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C607" s="30" t="s">
+      <c r="C607" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="D607" s="5"/>
-      <c r="E607" s="5"/>
+      <c r="D607" s="34"/>
+      <c r="E607" s="34"/>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C608" s="19" t="s">
+      <c r="C608" s="14" t="s">
         <v>545</v>
       </c>
       <c r="D608" t="s">
@@ -6902,7 +8241,7 @@
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C609" s="20" t="s">
+      <c r="C609" s="15" t="s">
         <v>492</v>
       </c>
       <c r="D609" t="s">
@@ -6913,7 +8252,7 @@
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C610" s="20" t="s">
+      <c r="C610" s="15" t="s">
         <v>546</v>
       </c>
       <c r="D610" t="s">
@@ -6924,7 +8263,7 @@
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C611" s="19" t="s">
+      <c r="C611" s="14" t="s">
         <v>547</v>
       </c>
     </row>
@@ -6936,25 +8275,27 @@
       <c r="E612" s="5"/>
     </row>
     <row r="614" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A614" s="24" t="s">
+      <c r="A614" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="B614" s="23" t="s">
+      <c r="B614" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C614" s="30" t="s">
+      <c r="C614" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="D614" s="5"/>
-      <c r="E614" s="5"/>
+      <c r="D614" s="34"/>
+      <c r="E614" s="34"/>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C615" s="19" t="s">
+      <c r="C615" s="40" t="s">
         <v>549</v>
       </c>
+      <c r="D615" s="39"/>
+      <c r="E615" s="39"/>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C616" s="20" t="s">
+      <c r="C616" s="15" t="s">
         <v>550</v>
       </c>
       <c r="D616" t="s">
@@ -6965,7 +8306,7 @@
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C617" s="20" t="s">
+      <c r="C617" s="15" t="s">
         <v>551</v>
       </c>
       <c r="D617" t="s">
@@ -6976,7 +8317,7 @@
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C618" s="20" t="s">
+      <c r="C618" s="15" t="s">
         <v>552</v>
       </c>
       <c r="D618" t="s">
@@ -6987,7 +8328,7 @@
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C619" s="20" t="s">
+      <c r="C619" s="15" t="s">
         <v>553</v>
       </c>
       <c r="D619" t="s">
@@ -6998,7 +8339,7 @@
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C620" s="20" t="s">
+      <c r="C620" s="15" t="s">
         <v>554</v>
       </c>
       <c r="D620" t="s">
@@ -7009,7 +8350,7 @@
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C621" s="20" t="s">
+      <c r="C621" s="15" t="s">
         <v>555</v>
       </c>
       <c r="D621" t="s">
@@ -7027,30 +8368,34 @@
       <c r="E622" s="5"/>
     </row>
     <row r="624" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A624" s="24" t="s">
+      <c r="A624" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="B624" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C624" s="30" t="s">
+      <c r="B624" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C624" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="D624" s="5"/>
-      <c r="E624" s="5"/>
+      <c r="D624" s="34"/>
+      <c r="E624" s="34"/>
     </row>
     <row r="625" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C625" s="19" t="s">
+      <c r="C625" s="40" t="s">
         <v>557</v>
       </c>
+      <c r="D625" s="39"/>
+      <c r="E625" s="39"/>
     </row>
     <row r="626" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C626" s="20" t="s">
+      <c r="C626" s="41" t="s">
         <v>558</v>
       </c>
+      <c r="D626" s="39"/>
+      <c r="E626" s="39"/>
     </row>
     <row r="627" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C627" s="21" t="s">
+      <c r="C627" s="16" t="s">
         <v>559</v>
       </c>
       <c r="D627" t="s">
@@ -7061,350 +8406,494 @@
       </c>
     </row>
     <row r="628" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C628" s="21" t="s">
+      <c r="C628" s="16" t="s">
         <v>454</v>
       </c>
+      <c r="E628" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="629" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C629" s="21" t="s">
+      <c r="C629" s="16" t="s">
         <v>455</v>
       </c>
+      <c r="E629" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="630" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C630" s="21" t="s">
+      <c r="C630" s="16" t="s">
         <v>321</v>
       </c>
+      <c r="E630" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="631" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C631" s="21" t="s">
+      <c r="C631" s="16" t="s">
         <v>296</v>
       </c>
+      <c r="E631" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="632" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C632" s="21" t="s">
+      <c r="C632" s="16" t="s">
         <v>560</v>
       </c>
+      <c r="E632" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="633" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C633" s="21" t="s">
+      <c r="C633" s="16" t="s">
         <v>561</v>
       </c>
+      <c r="E633" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="634" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C634" s="21" t="s">
+      <c r="C634" s="16" t="s">
         <v>562</v>
       </c>
+      <c r="E634" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="635" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C635" s="21" t="s">
+      <c r="C635" s="16" t="s">
         <v>563</v>
       </c>
+      <c r="E635" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="636" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C636" s="21" t="s">
+      <c r="C636" s="16" t="s">
         <v>564</v>
       </c>
+      <c r="E636" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="637" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C637" s="21" t="s">
+      <c r="C637" s="16" t="s">
         <v>565</v>
       </c>
+      <c r="E637" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="638" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C638" s="21" t="s">
+      <c r="C638" s="16" t="s">
         <v>566</v>
       </c>
+      <c r="E638" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="639" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C639" s="21" t="s">
+      <c r="C639" s="16" t="s">
         <v>567</v>
       </c>
+      <c r="E639" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="640" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C640" s="21" t="s">
+      <c r="C640" s="16" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="641" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C641" s="20" t="s">
+      <c r="E640" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="641" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C641" s="41" t="s">
         <v>569</v>
       </c>
-      <c r="D641" s="14"/>
-    </row>
-    <row r="642" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C642" s="21" t="s">
+      <c r="D641" s="45"/>
+      <c r="E641" s="39"/>
+    </row>
+    <row r="642" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C642" s="16" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="643" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C643" s="21" t="s">
+      <c r="E642" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="643" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C643" s="16" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="644" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C644" s="21" t="s">
+      <c r="E643" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="644" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C644" s="16" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="645" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C645" s="21" t="s">
+      <c r="E644" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="645" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C645" s="16" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="646" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C646" s="21" t="s">
+      <c r="E645" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="646" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C646" s="16" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="647" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C647" s="21" t="s">
+      <c r="E646" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="647" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C647" s="16" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="648" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C648" s="21" t="s">
+      <c r="E647" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="648" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C648" s="16" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="649" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C649" s="21" t="s">
+      <c r="E648" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="649" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C649" s="16" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="650" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C650" s="21" t="s">
+      <c r="E649" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="650" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C650" s="16" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="651" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C651" s="21" t="s">
+      <c r="E650" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="651" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C651" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="652" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C652" s="20" t="s">
+      <c r="E651" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="652" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C652" s="41" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="653" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C653" s="20" t="s">
+      <c r="D652" s="39"/>
+      <c r="E652" s="39"/>
+    </row>
+    <row r="653" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C653" s="41" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="654" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C654" s="19" t="s">
+      <c r="D653" s="39"/>
+      <c r="E653" s="39"/>
+    </row>
+    <row r="654" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C654" s="40" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="655" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C655" s="20" t="s">
+      <c r="D654" s="39"/>
+      <c r="E654" s="39"/>
+    </row>
+    <row r="655" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C655" s="41" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="656" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C656" s="21" t="s">
+      <c r="D655" s="39"/>
+      <c r="E655" s="39"/>
+    </row>
+    <row r="656" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C656" s="42" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C657" s="21" t="s">
+      <c r="D656" s="39"/>
+      <c r="E656" s="39"/>
+    </row>
+    <row r="657" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C657" s="42" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C658" s="21" t="s">
+      <c r="D657" s="39"/>
+      <c r="E657" s="39"/>
+    </row>
+    <row r="658" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C658" s="16" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C659" s="21" t="s">
+      <c r="E658" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="659" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C659" s="16" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C660" s="21" t="s">
+      <c r="E659" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="660" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C660" s="16" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C661" s="20" t="s">
+      <c r="E660" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="661" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C661" s="41" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C662" s="21" t="s">
+      <c r="D661" s="39"/>
+      <c r="E661" s="39"/>
+    </row>
+    <row r="662" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C662" s="16" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C663" s="21" t="s">
+      <c r="E662" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="663" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C663" s="16" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C664" s="20" t="s">
+      <c r="E663" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="664" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C664" s="15" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C665" s="20" t="s">
+      <c r="E664" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="665" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C665" s="41" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C666" s="21" t="s">
+      <c r="D665" s="39"/>
+      <c r="E665" s="39"/>
+    </row>
+    <row r="666" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C666" s="16" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C667" s="20" t="s">
+      <c r="E666" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="667" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C667" s="41" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C668" s="21" t="s">
+      <c r="D667" s="39"/>
+      <c r="E667" s="39"/>
+    </row>
+    <row r="668" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C668" s="16" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C669" s="21" t="s">
+      <c r="E668" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="669" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C669" s="16" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C670" s="21" t="s">
+      <c r="E669" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="670" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C670" s="16" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C671" s="21" t="s">
+      <c r="E670" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="671" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C671" s="16" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C672" s="21" t="s">
+      <c r="E671" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="672" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C672" s="16" t="s">
         <v>593</v>
       </c>
+      <c r="E672" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C673" s="20" t="s">
+      <c r="C673" s="41" t="s">
         <v>594</v>
       </c>
+      <c r="D673" s="39"/>
+      <c r="E673" s="39"/>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C674" s="19" t="s">
+      <c r="C674" s="40" t="s">
         <v>595</v>
       </c>
+      <c r="D674" s="39"/>
+      <c r="E674" s="39"/>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C675" s="20" t="s">
+      <c r="C675" s="41" t="s">
         <v>596</v>
       </c>
+      <c r="D675" s="39"/>
+      <c r="E675" s="39"/>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C676" s="20" t="s">
+      <c r="C676" s="41" t="s">
         <v>597</v>
       </c>
+      <c r="D676" s="39"/>
+      <c r="E676" s="39"/>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C677" s="20" t="s">
+      <c r="C677" s="41" t="s">
         <v>598</v>
       </c>
+      <c r="D677" s="39"/>
+      <c r="E677" s="39"/>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C678" s="20" t="s">
+      <c r="C678" s="41" t="s">
         <v>599</v>
       </c>
+      <c r="D678" s="39"/>
+      <c r="E678" s="39"/>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C679" s="20" t="s">
+      <c r="C679" s="41" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="681" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A681" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="B681" s="23" t="s">
+      <c r="D679" s="39"/>
+      <c r="E679" s="39"/>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680" s="5"/>
+      <c r="B680" s="5"/>
+      <c r="C680" s="29"/>
+      <c r="D680" s="5"/>
+      <c r="E680" s="5"/>
+    </row>
+    <row r="682" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A682" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="B682" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C682" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="D682" s="34"/>
+      <c r="E682" s="34"/>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C683" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="D683" s="39"/>
+      <c r="E683" s="39"/>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C684" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C685" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686" s="5"/>
+      <c r="B686" s="5"/>
+      <c r="C686" s="5"/>
+      <c r="D686" s="5"/>
+      <c r="E686" s="5"/>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C687" s="3"/>
+      <c r="D687" s="3"/>
+      <c r="E687" s="3"/>
+    </row>
+    <row r="688" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A688" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B688" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C681" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="D681" s="5"/>
-      <c r="E681" s="5"/>
-    </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C682" s="19" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C683" s="20" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C684" s="20" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A685" s="5"/>
-      <c r="B685" s="5"/>
-      <c r="C685" s="5"/>
-      <c r="D685" s="5"/>
-      <c r="E685" s="5"/>
-    </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B686" s="3"/>
-      <c r="C686" s="3"/>
-      <c r="D686" s="3"/>
-      <c r="E686" s="3"/>
-    </row>
-    <row r="687" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A687" s="24" t="s">
+      <c r="C688" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="B687" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C687" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="D687" s="5"/>
-      <c r="E687" s="5"/>
-    </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C688" s="19" t="s">
+      <c r="D688" s="34"/>
+      <c r="E688" s="34"/>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C689" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="D688" t="s">
+      <c r="D689" t="s">
         <v>764</v>
       </c>
-      <c r="E688" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C689" s="19" t="s">
+      <c r="E689" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C690" s="14" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C690" s="19" t="s">
+      <c r="E690" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C691" s="14" t="s">
         <v>608</v>
-      </c>
-      <c r="D690" t="s">
-        <v>764</v>
-      </c>
-      <c r="E690" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C691" s="19" t="s">
-        <v>609</v>
       </c>
       <c r="D691" t="s">
         <v>764</v>
@@ -7414,675 +8903,911 @@
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C692" s="19" t="s">
+      <c r="C692" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="D692" t="s">
+        <v>764</v>
+      </c>
+      <c r="E692" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C693" s="14" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C693" s="19" t="s">
+      <c r="E693" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C694" s="14" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C694" s="19" t="s">
+      <c r="E694" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C695" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="D694" t="s">
+      <c r="D695" t="s">
         <v>765</v>
       </c>
-      <c r="E694" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C695" s="19" t="s">
+      <c r="E695" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C696" s="14" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A696" s="5"/>
-      <c r="B696" s="5"/>
-      <c r="C696" s="5"/>
-      <c r="D696" s="5"/>
-      <c r="E696" s="5"/>
+      <c r="E696" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C697" s="3"/>
-      <c r="D697" s="3"/>
-      <c r="E697" s="3"/>
-    </row>
-    <row r="698" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A698" s="24" t="s">
+      <c r="A697" s="5"/>
+      <c r="B697" s="5"/>
+      <c r="C697" s="5"/>
+      <c r="D697" s="5"/>
+      <c r="E697" s="5"/>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C698" s="3"/>
+      <c r="D698" s="3"/>
+      <c r="E698" s="3"/>
+    </row>
+    <row r="699" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A699" s="17" t="s">
         <v>614</v>
       </c>
-      <c r="B698" s="23" t="s">
+      <c r="B699" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C699" s="47" t="s">
+        <v>614</v>
+      </c>
+      <c r="D699" s="46"/>
+      <c r="E699" s="46"/>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C700" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="D700" s="39"/>
+      <c r="E700" s="39"/>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C701" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="D701" s="39"/>
+      <c r="E701" s="39"/>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C702" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="D702" s="39"/>
+      <c r="E702" s="39"/>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C703" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="D703" s="39"/>
+      <c r="E703" s="39"/>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C704" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="705" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C705" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="E705" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="706" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C706" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="D706" t="s">
+        <v>766</v>
+      </c>
+      <c r="E706" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="707" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C707" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="708" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C708" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="D708" s="39"/>
+      <c r="E708" s="39"/>
+    </row>
+    <row r="709" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C709" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="E709" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="710" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C710" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="D710" t="s">
+        <v>789</v>
+      </c>
+      <c r="E710" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="711" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C711" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="E711" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="712" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C712" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="D712" s="39"/>
+      <c r="E712" s="39"/>
+    </row>
+    <row r="713" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C713" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="E713" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="714" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C714" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="D714" s="39"/>
+      <c r="E714" s="39"/>
+    </row>
+    <row r="715" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C715" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="E715" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="716" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C716" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E716" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="717" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C717" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="E717" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="718" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C718" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="719" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C719" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="E719" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="720" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C720" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="E720" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="721" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C721" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="E721" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="722" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C722" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E722" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="723" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C723" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="E723" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="724" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C724" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="E724" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="725" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C725" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E725" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="726" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C726" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="D726" s="39"/>
+      <c r="E726" s="39"/>
+    </row>
+    <row r="727" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C727" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="E727" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="728" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C728" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="D728" s="39"/>
+      <c r="E728" s="39"/>
+    </row>
+    <row r="729" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C729" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="E729" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="730" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C730" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="E730" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="731" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C731" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="E731" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="732" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C732" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="E732" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="733" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C733" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="E733" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="734" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C734" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="E734" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="735" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C735" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="E735" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="736" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C736" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="E736" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C737" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="E737" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C738" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="E738" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C739" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="E739" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C740" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="E740" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C741" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="E741" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C742" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="E742" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C743" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="E743" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C744" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E744" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C745" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E745" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A746" s="5"/>
+      <c r="B746" s="5"/>
+      <c r="C746" s="29"/>
+      <c r="D746" s="5"/>
+      <c r="E746" s="5"/>
+    </row>
+    <row r="748" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A748" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="B748" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C748" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="D748" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="E748" s="9" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749" s="5"/>
+      <c r="B749" s="5"/>
+      <c r="C749" s="5"/>
+      <c r="D749" s="5"/>
+      <c r="E749" s="5"/>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C750" s="3"/>
+      <c r="D750" s="3"/>
+      <c r="E750" s="3"/>
+    </row>
+    <row r="751" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A751" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="B751" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C698" s="30" t="s">
-        <v>614</v>
-      </c>
-      <c r="D698" s="5"/>
-      <c r="E698" s="5"/>
-    </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C699" s="19" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C700" s="19" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C701" s="19" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C702" s="19" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C703" s="19" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C704" s="19" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="705" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C705" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="D705" t="s">
-        <v>766</v>
-      </c>
-      <c r="E705" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="706" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C706" s="19" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="707" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C707" s="19" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="708" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C708" s="19" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="709" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C709" s="19" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="710" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C710" s="19" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="711" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C711" s="19" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="712" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C712" s="20" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="713" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C713" s="19" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="714" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C714" s="20" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="715" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C715" s="20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="716" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C716" s="20" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="717" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C717" s="20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="718" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C718" s="20" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="719" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C719" s="20" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="720" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C720" s="20" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C721" s="20" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C722" s="20" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C723" s="20" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C724" s="20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C725" s="19" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C726" s="20" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C727" s="19" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C728" s="20" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C729" s="20" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C730" s="20" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C731" s="20" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C732" s="20" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C733" s="20" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C734" s="20" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C735" s="20" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C736" s="20" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C737" s="20" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C738" s="20" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C739" s="20" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C740" s="20" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C741" s="20" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C742" s="20" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C743" s="20" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C744" s="20" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A745" s="5"/>
-      <c r="B745" s="5"/>
-      <c r="C745" s="41"/>
-      <c r="D745" s="5"/>
-      <c r="E745" s="5"/>
-    </row>
-    <row r="747" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A747" s="24" t="s">
-        <v>656</v>
-      </c>
-      <c r="B747" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C747" s="5"/>
-      <c r="D747" s="5"/>
-      <c r="E747" s="11"/>
-    </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A748" s="5"/>
-      <c r="B748" s="5"/>
-      <c r="C748" s="5"/>
-      <c r="D748" s="5"/>
-      <c r="E748" s="5"/>
-    </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C749" s="3"/>
-      <c r="D749" s="3"/>
-      <c r="E749" s="3"/>
-    </row>
-    <row r="750" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A750" s="24" t="s">
-        <v>783</v>
-      </c>
-      <c r="B750" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C750" s="30" t="s">
+      <c r="C751" s="37" t="s">
         <v>657</v>
       </c>
-      <c r="D750" s="5"/>
-      <c r="E750" s="5"/>
-    </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C751" s="19" t="s">
+      <c r="D751" s="34"/>
+      <c r="E751" s="34"/>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C752" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="D751" t="s">
+      <c r="D752" t="s">
         <v>767</v>
       </c>
-      <c r="E751" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C752" s="19" t="s">
+      <c r="E752" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="753" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C753" s="14" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="753" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C753" s="19" t="s">
+      <c r="E753" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="754" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C754" s="40" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="754" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C754" s="20" t="s">
+      <c r="D754" s="39"/>
+      <c r="E754" s="39"/>
+    </row>
+    <row r="755" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C755" s="15" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="755" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C755" s="20" t="s">
+      <c r="E755" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="756" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C756" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="D755" t="s">
-        <v>767</v>
-      </c>
-      <c r="E755" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="756" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C756" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="D756" t="s">
         <v>767</v>
       </c>
-      <c r="E756" s="2" t="s">
-        <v>63</v>
+      <c r="E756" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="757" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C757" s="20" t="s">
+      <c r="C757" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D757" t="s">
+        <v>767</v>
+      </c>
+      <c r="E757" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="758" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C758" s="15" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="758" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C758" s="20" t="s">
+      <c r="E758" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="759" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C759" s="15" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="759" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C759" s="20" t="s">
+      <c r="E759" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="760" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C760" s="15" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="760" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C760" s="20" t="s">
+      <c r="E760" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="761" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C761" s="15" t="s">
         <v>664</v>
-      </c>
-      <c r="D760" t="s">
-        <v>767</v>
-      </c>
-      <c r="E760" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="761" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C761" s="20" t="s">
-        <v>665</v>
       </c>
       <c r="D761" t="s">
         <v>767</v>
       </c>
-      <c r="E761" s="2" t="s">
+      <c r="E761" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="762" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C762" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="D762" t="s">
+        <v>767</v>
+      </c>
+      <c r="E762" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="763" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C763" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="E763" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="764" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C764" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E764" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="765" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C765" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="E765" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="766" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C766" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="E766" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="767" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C767" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="768" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C768" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="E768" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C769" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C770" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="E770" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C771" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772" s="5"/>
+      <c r="B772" s="5"/>
+      <c r="C772" s="5"/>
+      <c r="D772" s="5"/>
+      <c r="E772" s="5"/>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C773" s="3"/>
+      <c r="D773" s="3"/>
+      <c r="E773" s="3"/>
+    </row>
+    <row r="774" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A774" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="B774" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="762" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C762" s="20" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="763" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C763" s="20" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="764" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C764" s="20" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="765" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C765" s="20" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="766" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C766" s="20" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="767" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C767" s="20" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="768" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C768" s="20" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C769" s="20" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C770" s="20" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A771" s="5"/>
-      <c r="B771" s="5"/>
-      <c r="C771" s="5"/>
-      <c r="D771" s="5"/>
-      <c r="E771" s="5"/>
-    </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B772" s="3"/>
-      <c r="C772" s="3"/>
-      <c r="D772" s="3"/>
-      <c r="E772" s="3"/>
-    </row>
-    <row r="773" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A773" s="24" t="s">
+      <c r="C774" s="37" t="s">
         <v>672</v>
       </c>
-      <c r="B773" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C773" s="30" t="s">
-        <v>672</v>
-      </c>
-      <c r="D773" s="5"/>
-      <c r="E773" s="5"/>
-    </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C774" s="19" t="s">
+      <c r="D774" s="34"/>
+      <c r="E774" s="34"/>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C775" s="14" t="s">
         <v>673</v>
-      </c>
-      <c r="D774" t="s">
-        <v>768</v>
-      </c>
-      <c r="E774" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C775" s="19" t="s">
-        <v>674</v>
       </c>
       <c r="D775" t="s">
         <v>768</v>
       </c>
-      <c r="E775" s="2" t="s">
-        <v>63</v>
+      <c r="E775" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C776" s="19" t="s">
-        <v>675</v>
+      <c r="C776" s="14" t="s">
+        <v>674</v>
       </c>
       <c r="D776" t="s">
         <v>768</v>
       </c>
-      <c r="E776" s="2" t="s">
+      <c r="E776" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C777" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="D777" t="s">
+        <v>768</v>
+      </c>
+      <c r="E777" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778" s="5"/>
+      <c r="B778" s="5"/>
+      <c r="C778" s="5"/>
+      <c r="D778" s="5"/>
+      <c r="E778" s="5"/>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C779" s="3"/>
+      <c r="D779" s="3"/>
+      <c r="E779" s="3"/>
+    </row>
+    <row r="780" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A780" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="B780" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C780" s="37" t="s">
+        <v>676</v>
+      </c>
+      <c r="D780" s="34"/>
+      <c r="E780" s="34"/>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C781" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="E781" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C782" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="E782" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C783" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C784" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="E784" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C785" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E785" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C786" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="E786" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C787" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E787" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C788" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="E788" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C789" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="E789" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C790" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C791" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C792" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="E792" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C793" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="E793" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C794" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="E794" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C795" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="E795" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C796" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="E796" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C797" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="E797" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798" s="5"/>
+      <c r="B798" s="5"/>
+      <c r="C798" s="28"/>
+      <c r="D798" s="5"/>
+      <c r="E798" s="5"/>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C799" s="3"/>
+      <c r="D799" s="3"/>
+      <c r="E799" s="3"/>
+    </row>
+    <row r="800" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A800" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="B800" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A777" s="5"/>
-      <c r="B777" s="5"/>
-      <c r="C777" s="5"/>
-      <c r="D777" s="5"/>
-      <c r="E777" s="5"/>
-    </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B778" s="3"/>
-      <c r="C778" s="3"/>
-      <c r="D778" s="3"/>
-      <c r="E778" s="3"/>
-    </row>
-    <row r="779" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A779" s="24" t="s">
-        <v>784</v>
-      </c>
-      <c r="B779" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C779" s="30" t="s">
-        <v>676</v>
-      </c>
-      <c r="D779" s="5"/>
-      <c r="E779" s="5"/>
-    </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C780" s="19" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C781" s="19" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C782" s="19" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C783" s="19" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C784" s="20" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C785" s="20" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C786" s="19" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C787" s="19" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C788" s="19" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C789" s="19" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C790" s="19" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C791" s="19" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C792" s="19" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C793" s="19" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C794" s="19" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C795" s="19" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C796" s="19" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A797" s="5"/>
-      <c r="B797" s="5"/>
-      <c r="C797" s="40"/>
-      <c r="D797" s="5"/>
-      <c r="E797" s="5"/>
-    </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B798" s="3"/>
-      <c r="C798" s="3"/>
-      <c r="D798" s="3"/>
-      <c r="E798" s="3"/>
-    </row>
-    <row r="799" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A799" s="24" t="s">
-        <v>785</v>
-      </c>
-      <c r="B799" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C799" s="30" t="s">
+      <c r="C800" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="D799" s="5"/>
-      <c r="E799" s="5"/>
-    </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C800" s="19" t="s">
+      <c r="D800" s="34"/>
+      <c r="E800" s="34"/>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C801" s="14" t="s">
         <v>695</v>
-      </c>
-      <c r="D800" t="s">
-        <v>769</v>
-      </c>
-      <c r="E800" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C801" s="19" t="s">
-        <v>696</v>
       </c>
       <c r="D801" t="s">
         <v>769</v>
@@ -8092,346 +9817,422 @@
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C802" s="19" t="s">
+      <c r="C802" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="D802" t="s">
+        <v>769</v>
+      </c>
+      <c r="E802" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C803" s="14" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C803" s="19" t="s">
+      <c r="E803" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C804" s="14" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C804" s="19" t="s">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C805" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="D804" t="s">
+      <c r="D805" t="s">
         <v>769</v>
       </c>
-      <c r="E804" s="2" t="s">
+      <c r="E805" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C805" s="19" t="s">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C806" s="14" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C806" s="19" t="s">
+      <c r="E806" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C807" s="40" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C807" s="20" t="s">
+      <c r="D807" s="39"/>
+      <c r="E807" s="39"/>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C808" s="15" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C808" s="20" t="s">
+      <c r="E808" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C809" s="15" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C809" s="20" t="s">
+      <c r="E809" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C810" s="15" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C810" s="20" t="s">
+      <c r="E810" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C811" s="15" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A811" s="5"/>
-      <c r="B811" s="5"/>
-      <c r="C811" s="5"/>
-      <c r="D811" s="5"/>
-      <c r="E811" s="5"/>
+      <c r="E811" s="3" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B812" s="3"/>
-      <c r="C812" s="3"/>
-      <c r="D812" s="3"/>
-      <c r="E812" s="3"/>
-    </row>
-    <row r="813" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A813" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="B813" s="23" t="s">
+      <c r="A812" s="5"/>
+      <c r="B812" s="5"/>
+      <c r="C812" s="5"/>
+      <c r="D812" s="5"/>
+      <c r="E812" s="5"/>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C813" s="3"/>
+      <c r="D813" s="3"/>
+      <c r="E813" s="3"/>
+    </row>
+    <row r="814" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A814" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="B814" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C813" s="30" t="s">
+      <c r="C814" s="37" t="s">
         <v>706</v>
       </c>
-      <c r="D813" s="5"/>
-      <c r="E813" s="5"/>
-    </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C814" s="19" t="s">
+      <c r="D814" s="34"/>
+      <c r="E814" s="34"/>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C815" s="40" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C815" s="19" t="s">
+      <c r="D815" s="39"/>
+      <c r="E815" s="39"/>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C816" s="14" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C816" s="19" t="s">
+      <c r="E816" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="817" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C817" s="14" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="817" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C817" s="19" t="s">
+      <c r="E817" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="818" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C818" s="14" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="818" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C818" s="19" t="s">
+      <c r="E818" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="819" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C819" s="14" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="819" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C819" s="19" t="s">
+      <c r="E819" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="820" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C820" s="14" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="820" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C820" s="19" t="s">
+      <c r="E820" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="821" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C821" s="14" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="821" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C821" s="19" t="s">
+      <c r="E821" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="822" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C822" s="14" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="822" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C822" s="19" t="s">
+      <c r="E822" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="823" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C823" s="40" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="823" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C823" s="20" t="s">
+      <c r="D823" s="39"/>
+      <c r="E823" s="39"/>
+    </row>
+    <row r="824" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C824" s="15" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="824" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C824" s="20" t="s">
+      <c r="E824" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="825" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C825" s="15" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="825" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C825" s="20" t="s">
+      <c r="E825" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="826" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C826" s="15" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="826" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C826" s="19" t="s">
+      <c r="E826" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="827" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C827" s="40" t="s">
         <v>719</v>
       </c>
-      <c r="D826" t="s">
+      <c r="D827" s="39"/>
+      <c r="E827" s="39"/>
+    </row>
+    <row r="828" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C828" s="40" t="s">
+        <v>720</v>
+      </c>
+      <c r="D828" s="39"/>
+      <c r="E828" s="39"/>
+    </row>
+    <row r="829" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C829" s="40" t="s">
+        <v>721</v>
+      </c>
+      <c r="D829" s="39"/>
+      <c r="E829" s="39"/>
+    </row>
+    <row r="830" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C830" s="40" t="s">
+        <v>722</v>
+      </c>
+      <c r="D830" s="39"/>
+      <c r="E830" s="39"/>
+    </row>
+    <row r="831" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C831" s="40" t="s">
+        <v>723</v>
+      </c>
+      <c r="D831" s="39"/>
+      <c r="E831" s="39"/>
+    </row>
+    <row r="832" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C832" s="40" t="s">
+        <v>724</v>
+      </c>
+      <c r="D832" s="39"/>
+      <c r="E832" s="39"/>
+    </row>
+    <row r="833" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C833" s="40" t="s">
+        <v>725</v>
+      </c>
+      <c r="D833" s="39"/>
+      <c r="E833" s="39"/>
+    </row>
+    <row r="834" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C834" s="40" t="s">
+        <v>726</v>
+      </c>
+      <c r="D834" s="39"/>
+      <c r="E834" s="39"/>
+    </row>
+    <row r="835" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C835" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="D835" t="s">
         <v>770</v>
       </c>
-      <c r="E826" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="827" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C827" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="D827" t="s">
+      <c r="E835" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="836" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C836" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="E836" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="837" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C837" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="D837" t="s">
         <v>770</v>
       </c>
-      <c r="E827" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="828" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C828" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="D828" t="s">
+      <c r="E837" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="838" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C838" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="E838" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="839" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C839" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="D839" t="s">
         <v>770</v>
       </c>
-      <c r="E828" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="829" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C829" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="D829" t="s">
+      <c r="E839" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="840" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C840" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="E840" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="841" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C841" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="D841" t="s">
         <v>770</v>
       </c>
-      <c r="E829" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="830" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C830" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="D830" t="s">
+      <c r="E841" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="842" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C842" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="E842" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="843" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C843" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="D843" t="s">
         <v>770</v>
       </c>
-      <c r="E830" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="831" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C831" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="D831" t="s">
+      <c r="E843" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="844" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C844" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="845" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C845" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="D845" t="s">
         <v>770</v>
       </c>
-      <c r="E831" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="832" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C832" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="D832" t="s">
-        <v>770</v>
-      </c>
-      <c r="E832" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="833" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C833" s="19" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="834" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C834" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="D834" t="s">
-        <v>771</v>
-      </c>
-      <c r="E834" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="835" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C835" s="19" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="836" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C836" s="19" t="s">
-        <v>729</v>
-      </c>
-      <c r="D836" t="s">
-        <v>771</v>
-      </c>
-      <c r="E836" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="837" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C837" s="19" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="838" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C838" s="19" t="s">
-        <v>731</v>
-      </c>
-      <c r="D838" t="s">
-        <v>771</v>
-      </c>
-      <c r="E838" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="839" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C839" s="19" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="840" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C840" s="19" t="s">
-        <v>733</v>
-      </c>
-      <c r="D840" t="s">
-        <v>771</v>
-      </c>
-      <c r="E840" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="841" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C841" s="19" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="842" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C842" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="D842" t="s">
-        <v>771</v>
-      </c>
-      <c r="E842" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="843" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C843" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="844" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C844" s="19" t="s">
-        <v>737</v>
-      </c>
-      <c r="D844" t="s">
-        <v>771</v>
-      </c>
-      <c r="E844" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="845" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C845" s="19" t="s">
+      <c r="E845" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="846" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C846" s="14" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="846" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C846" s="19" t="s">
+      <c r="E846" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="847" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C847" s="14" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="847" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C847" s="19" t="s">
+      <c r="E847" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="848" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C848" s="14" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="848" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C848" s="19" t="s">
+      <c r="E848" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C849" s="40" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C849" s="19" t="s">
+      <c r="D849" s="39"/>
+      <c r="E849" s="39"/>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C850" s="40" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C850" s="19" t="s">
+      <c r="D850" s="39"/>
+      <c r="E850" s="39"/>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C851" s="40" t="s">
         <v>743</v>
       </c>
+      <c r="D851" s="39"/>
+      <c r="E851" s="39"/>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A852" s="5"/>
+      <c r="B852" s="5"/>
+      <c r="C852" s="5"/>
+      <c r="D852" s="5"/>
+      <c r="E852" s="5"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <hyperlinks>
     <hyperlink ref="C171" r:id="rId1" location="dns_dns" display="dns_dns"/>
     <hyperlink ref="C172" r:id="rId2" location="dns_dns_lookup_hostname_options_callback" display="https://nodejs.org/api/dns.html - dns_dns_lookup_hostname_options_callback"/>
@@ -8977,159 +10778,159 @@
     <hyperlink ref="C677" r:id="rId542" location="stream_stream_push" display="https://nodejs.org/api/stream.html - stream_stream_push"/>
     <hyperlink ref="C678" r:id="rId543" location="stream_compatibility_with_older_node_versions" display="https://nodejs.org/api/stream.html - stream_compatibility_with_older_node_versions"/>
     <hyperlink ref="C679" r:id="rId544" location="stream_object_mode" display="stream_object_mode"/>
-    <hyperlink ref="C681" r:id="rId545" location="string_decoder_stringdecoder" display="https://nodejs.org/api/string_decoder.html - string_decoder_stringdecoder"/>
-    <hyperlink ref="C682" r:id="rId546" location="string_decoder_class_stringdecoder" display="string_decoder_class_stringdecoder"/>
-    <hyperlink ref="C683" r:id="rId547" location="string_decoder_decoder_write_buffer" display="https://nodejs.org/api/string_decoder.html - string_decoder_decoder_write_buffer"/>
-    <hyperlink ref="C684" r:id="rId548" location="string_decoder_decoder_end" display="https://nodejs.org/api/string_decoder.html - string_decoder_decoder_end"/>
-    <hyperlink ref="C687" r:id="rId549" location="timers_timers" display="https://nodejs.org/api/timers.html - timers_timers"/>
-    <hyperlink ref="C688" r:id="rId550" location="timers_settimeout_callback_delay_arg" display="https://nodejs.org/api/timers.html - timers_settimeout_callback_delay_arg"/>
-    <hyperlink ref="C689" r:id="rId551" location="timers_cleartimeout_timeoutobject" display="https://nodejs.org/api/timers.html - timers_cleartimeout_timeoutobject"/>
-    <hyperlink ref="C690" r:id="rId552" location="timers_setinterval_callback_delay_arg" display="https://nodejs.org/api/timers.html - timers_setinterval_callback_delay_arg"/>
-    <hyperlink ref="C691" r:id="rId553" location="timers_clearinterval_intervalobject" display="https://nodejs.org/api/timers.html - timers_clearinterval_intervalobject"/>
-    <hyperlink ref="C692" r:id="rId554" location="timers_unref" display="https://nodejs.org/api/timers.html - timers_unref"/>
-    <hyperlink ref="C693" r:id="rId555" location="timers_ref" display="https://nodejs.org/api/timers.html - timers_ref"/>
-    <hyperlink ref="C694" r:id="rId556" location="timers_setimmediate_callback_arg" display="https://nodejs.org/api/timers.html - timers_setimmediate_callback_arg"/>
-    <hyperlink ref="C695" r:id="rId557" location="timers_clearimmediate_immediateobject" display="https://nodejs.org/api/timers.html - timers_clearimmediate_immediateobject"/>
-    <hyperlink ref="C698" r:id="rId558" location="tls_tls_ssl" display="https://nodejs.org/api/tls.html - tls_tls_ssl"/>
-    <hyperlink ref="C699" r:id="rId559" location="tls_protocol_support" display="https://nodejs.org/api/tls.html - tls_protocol_support"/>
-    <hyperlink ref="C700" r:id="rId560" location="tls_client_initiated_renegotiation_attack_mitigation" display="https://nodejs.org/api/tls.html - tls_client_initiated_renegotiation_attack_mitigation"/>
-    <hyperlink ref="C701" r:id="rId561" location="tls_npn_and_sni" display="https://nodejs.org/api/tls.html - tls_npn_and_sni"/>
-    <hyperlink ref="C702" r:id="rId562" location="tls_perfect_forward_secrecy" display="https://nodejs.org/api/tls.html - tls_perfect_forward_secrecy"/>
-    <hyperlink ref="C703" r:id="rId563" location="tls_tls_getciphers" display="https://nodejs.org/api/tls.html - tls_tls_getciphers"/>
-    <hyperlink ref="C704" r:id="rId564" location="tls_tls_createserver_options_secureconnectionlistener" display="tls_tls_createserver_options_secureconnectionlistener"/>
-    <hyperlink ref="C705" r:id="rId565" location="tls_tls_connect_options_callback" display="https://nodejs.org/api/tls.html - tls_tls_connect_options_callback"/>
-    <hyperlink ref="C706" r:id="rId566" location="tls_tls_connect_port_host_options_callback" display="https://nodejs.org/api/tls.html - tls_tls_connect_port_host_options_callback"/>
-    <hyperlink ref="C707" r:id="rId567" location="tls_class_tls_tlssocket" display="https://nodejs.org/api/tls.html - tls_class_tls_tlssocket"/>
-    <hyperlink ref="C708" r:id="rId568" location="tls_new_tls_tlssocket_socket_options" display="https://nodejs.org/api/tls.html - tls_new_tls_tlssocket_socket_options"/>
-    <hyperlink ref="C709" r:id="rId569" location="tls_tls_createsecurecontext_details" display="https://nodejs.org/api/tls.html - tls_tls_createsecurecontext_details"/>
-    <hyperlink ref="C710" r:id="rId570" location="tls_tls_createsecurepair_context_isserver_requestcert_rejectunauthorized" display="https://nodejs.org/api/tls.html - tls_tls_createsecurepair_context_isserver_requestcert_rejectunauthorized"/>
-    <hyperlink ref="C711" r:id="rId571" location="tls_class_securepair" display="https://nodejs.org/api/tls.html - tls_class_securepair"/>
-    <hyperlink ref="C712" r:id="rId572" location="tls_event_secure" display="https://nodejs.org/api/tls.html - tls_event_secure"/>
-    <hyperlink ref="C713" r:id="rId573" location="tls_class_tls_server" display="https://nodejs.org/api/tls.html - tls_class_tls_server"/>
-    <hyperlink ref="C714" r:id="rId574" location="tls_event_secureconnection" display="https://nodejs.org/api/tls.html - tls_event_secureconnection"/>
-    <hyperlink ref="C715" r:id="rId575" location="tls_event_clienterror" display="https://nodejs.org/api/tls.html - tls_event_clienterror"/>
-    <hyperlink ref="C716" r:id="rId576" location="tls_event_newsession" display="https://nodejs.org/api/tls.html - tls_event_newsession"/>
-    <hyperlink ref="C717" r:id="rId577" location="tls_event_resumesession" display="https://nodejs.org/api/tls.html - tls_event_resumesession"/>
-    <hyperlink ref="C718" r:id="rId578" location="tls_event_ocsprequest" display="https://nodejs.org/api/tls.html - tls_event_ocsprequest"/>
-    <hyperlink ref="C719" r:id="rId579" location="tls_server_listen_port_host_callback" display="https://nodejs.org/api/tls.html - tls_server_listen_port_host_callback"/>
-    <hyperlink ref="C720" r:id="rId580" location="tls_server_close" display="https://nodejs.org/api/tls.html - tls_server_close"/>
-    <hyperlink ref="C721" r:id="rId581" location="tls_server_address" display="https://nodejs.org/api/tls.html - tls_server_address"/>
-    <hyperlink ref="C722" r:id="rId582" location="tls_server_addcontext_hostname_context" display="https://nodejs.org/api/tls.html - tls_server_addcontext_hostname_context"/>
-    <hyperlink ref="C723" r:id="rId583" location="tls_server_maxconnections" display="https://nodejs.org/api/tls.html - tls_server_maxconnections"/>
-    <hyperlink ref="C724" r:id="rId584" location="tls_server_connections" display="https://nodejs.org/api/tls.html - tls_server_connections"/>
-    <hyperlink ref="C725" r:id="rId585" location="tls_class_cryptostream" display="https://nodejs.org/api/tls.html - tls_class_cryptostream"/>
-    <hyperlink ref="C726" r:id="rId586" location="tls_cryptostream_byteswritten" display="https://nodejs.org/api/tls.html - tls_cryptostream_byteswritten"/>
-    <hyperlink ref="C727" r:id="rId587" location="tls_class_tls_tlssocket_1" display="https://nodejs.org/api/tls.html - tls_class_tls_tlssocket_1"/>
-    <hyperlink ref="C728" r:id="rId588" location="tls_event_secureconnect" display="https://nodejs.org/api/tls.html - tls_event_secureconnect"/>
-    <hyperlink ref="C729" r:id="rId589" location="tls_event_ocspresponse" display="https://nodejs.org/api/tls.html - tls_event_ocspresponse"/>
-    <hyperlink ref="C730" r:id="rId590" location="tls_tlssocket_encrypted" display="https://nodejs.org/api/tls.html - tls_tlssocket_encrypted"/>
-    <hyperlink ref="C731" r:id="rId591" location="tls_tlssocket_authorized" display="https://nodejs.org/api/tls.html - tls_tlssocket_authorized"/>
-    <hyperlink ref="C732" r:id="rId592" location="tls_tlssocket_authorizationerror" display="https://nodejs.org/api/tls.html - tls_tlssocket_authorizationerror"/>
-    <hyperlink ref="C733" r:id="rId593" location="tls_tlssocket_getpeercertificate_detailed" display="https://nodejs.org/api/tls.html - tls_tlssocket_getpeercertificate_detailed"/>
-    <hyperlink ref="C734" r:id="rId594" location="tls_tlssocket_getcipher" display="https://nodejs.org/api/tls.html - tls_tlssocket_getcipher"/>
-    <hyperlink ref="C735" r:id="rId595" location="tls_tlssocket_renegotiate_options_callback" display="https://nodejs.org/api/tls.html - tls_tlssocket_renegotiate_options_callback"/>
-    <hyperlink ref="C736" r:id="rId596" location="tls_tlssocket_setmaxsendfragment_size" display="https://nodejs.org/api/tls.html - tls_tlssocket_setmaxsendfragment_size"/>
-    <hyperlink ref="C737" r:id="rId597" location="tls_tlssocket_getsession" display="https://nodejs.org/api/tls.html - tls_tlssocket_getsession"/>
-    <hyperlink ref="C738" r:id="rId598" location="tls_tlssocket_gettlsticket" display="https://nodejs.org/api/tls.html - tls_tlssocket_gettlsticket"/>
-    <hyperlink ref="C739" r:id="rId599" location="tls_tlssocket_address" display="https://nodejs.org/api/tls.html - tls_tlssocket_address"/>
-    <hyperlink ref="C740" r:id="rId600" location="tls_tlssocket_remoteaddress" display="https://nodejs.org/api/tls.html - tls_tlssocket_remoteaddress"/>
-    <hyperlink ref="C741" r:id="rId601" location="tls_tlssocket_remotefamily" display="https://nodejs.org/api/tls.html - tls_tlssocket_remotefamily"/>
-    <hyperlink ref="C742" r:id="rId602" location="tls_tlssocket_remoteport" display="https://nodejs.org/api/tls.html - tls_tlssocket_remoteport"/>
-    <hyperlink ref="C743" r:id="rId603" location="tls_tlssocket_localaddress" display="https://nodejs.org/api/tls.html - tls_tlssocket_localaddress"/>
-    <hyperlink ref="C744" r:id="rId604" location="tls_tlssocket_localport" display="tls_tlssocket_localport"/>
-    <hyperlink ref="C750" r:id="rId605" location="dgram_udp_datagram_sockets" display="https://nodejs.org/api/dgram.html - dgram_udp_datagram_sockets"/>
-    <hyperlink ref="C751" r:id="rId606" location="dgram_dgram_createsocket_type_callback" display="https://nodejs.org/api/dgram.html - dgram_dgram_createsocket_type_callback"/>
-    <hyperlink ref="C752" r:id="rId607" location="dgram_dgram_createsocket_options_callback" display="https://nodejs.org/api/dgram.html - dgram_dgram_createsocket_options_callback"/>
-    <hyperlink ref="C753" r:id="rId608" location="dgram_class_dgram_socket" display="https://nodejs.org/api/dgram.html - dgram_class_dgram_socket"/>
-    <hyperlink ref="C754" r:id="rId609" location="dgram_event_message" display="https://nodejs.org/api/dgram.html - dgram_event_message"/>
-    <hyperlink ref="C755" r:id="rId610" location="dgram_event_listening" display="https://nodejs.org/api/dgram.html - dgram_event_listening"/>
-    <hyperlink ref="C756" r:id="rId611" location="dgram_event_close" display="https://nodejs.org/api/dgram.html - dgram_event_close"/>
-    <hyperlink ref="C757" r:id="rId612" location="dgram_event_error" display="https://nodejs.org/api/dgram.html - dgram_event_error"/>
-    <hyperlink ref="C758" r:id="rId613" location="dgram_socket_send_buf_offset_length_port_address_callback" display="https://nodejs.org/api/dgram.html - dgram_socket_send_buf_offset_length_port_address_callback"/>
-    <hyperlink ref="C759" r:id="rId614" location="dgram_socket_bind_port_address_callback" display="https://nodejs.org/api/dgram.html - dgram_socket_bind_port_address_callback"/>
-    <hyperlink ref="C760" r:id="rId615" location="dgram_socket_bind_options_callback" display="https://nodejs.org/api/dgram.html - dgram_socket_bind_options_callback"/>
-    <hyperlink ref="C761" r:id="rId616" location="dgram_socket_close" display="https://nodejs.org/api/dgram.html - dgram_socket_close"/>
-    <hyperlink ref="C762" r:id="rId617" location="dgram_socket_address" display="https://nodejs.org/api/dgram.html - dgram_socket_address"/>
-    <hyperlink ref="C763" r:id="rId618" location="dgram_socket_setbroadcast_flag" display="https://nodejs.org/api/dgram.html - dgram_socket_setbroadcast_flag"/>
-    <hyperlink ref="C764" r:id="rId619" location="dgram_socket_setttl_ttl" display="https://nodejs.org/api/dgram.html - dgram_socket_setttl_ttl"/>
-    <hyperlink ref="C765" r:id="rId620" location="dgram_socket_setmulticastttl_ttl" display="https://nodejs.org/api/dgram.html - dgram_socket_setmulticastttl_ttl"/>
-    <hyperlink ref="C766" r:id="rId621" location="dgram_socket_setmulticastloopback_flag" display="https://nodejs.org/api/dgram.html - dgram_socket_setmulticastloopback_flag"/>
-    <hyperlink ref="C767" r:id="rId622" location="dgram_socket_addmembership_multicastaddress_multicastinterface" display="https://nodejs.org/api/dgram.html - dgram_socket_addmembership_multicastaddress_multicastinterface"/>
-    <hyperlink ref="C768" r:id="rId623" location="dgram_socket_dropmembership_multicastaddress_multicastinterface" display="https://nodejs.org/api/dgram.html - dgram_socket_dropmembership_multicastaddress_multicastinterface"/>
-    <hyperlink ref="C769" r:id="rId624" location="dgram_socket_unref" display="https://nodejs.org/api/dgram.html - dgram_socket_unref"/>
-    <hyperlink ref="C770" r:id="rId625" location="dgram_socket_ref" display="https://nodejs.org/api/dgram.html - dgram_socket_ref"/>
-    <hyperlink ref="C773" r:id="rId626" location="url_url" display="https://nodejs.org/api/url.html - url_url"/>
-    <hyperlink ref="C774" r:id="rId627" location="url_url_parse_urlstr_parsequerystring_slashesdenotehost" display="https://nodejs.org/api/url.html - url_url_parse_urlstr_parsequerystring_slashesdenotehost"/>
-    <hyperlink ref="C775" r:id="rId628" location="url_url_format_urlobj" display="https://nodejs.org/api/url.html - url_url_format_urlobj"/>
-    <hyperlink ref="C776" r:id="rId629" location="url_url_resolve_from_to" display="https://nodejs.org/api/url.html - url_url_resolve_from_to"/>
-    <hyperlink ref="C779" r:id="rId630" location="util_util" display="util_util"/>
-    <hyperlink ref="C780" r:id="rId631" location="util_util_debuglog_section" display="https://nodejs.org/api/util.html - util_util_debuglog_section"/>
-    <hyperlink ref="C781" r:id="rId632" location="util_util_format_format" display="https://nodejs.org/api/util.html - util_util_format_format"/>
-    <hyperlink ref="C782" r:id="rId633" location="util_util_log_string" display="https://nodejs.org/api/util.html - util_util_log_string"/>
-    <hyperlink ref="C783" r:id="rId634" location="util_util_inspect_object_options" display="https://nodejs.org/api/util.html - util_util_inspect_object_options"/>
-    <hyperlink ref="C784" r:id="rId635" location="util_customizing_util_inspect_colors" display="https://nodejs.org/api/util.html - util_customizing_util_inspect_colors"/>
-    <hyperlink ref="C785" r:id="rId636" location="util_custom_inspect_function_on_objects" display="https://nodejs.org/api/util.html - util_custom_inspect_function_on_objects"/>
-    <hyperlink ref="C786" r:id="rId637" location="util_util_isarray_object" display="https://nodejs.org/api/util.html - util_util_isarray_object"/>
-    <hyperlink ref="C787" r:id="rId638" location="util_util_isregexp_object" display="https://nodejs.org/api/util.html - util_util_isregexp_object"/>
-    <hyperlink ref="C788" r:id="rId639" location="util_util_isdate_object" display="https://nodejs.org/api/util.html - util_util_isdate_object"/>
-    <hyperlink ref="C789" r:id="rId640" location="util_util_iserror_object" display="https://nodejs.org/api/util.html - util_util_iserror_object"/>
-    <hyperlink ref="C790" r:id="rId641" location="util_util_inherits_constructor_superconstructor" display="https://nodejs.org/api/util.html - util_util_inherits_constructor_superconstructor"/>
-    <hyperlink ref="C791" r:id="rId642" location="util_util_deprecate_function_string" display="https://nodejs.org/api/util.html - util_util_deprecate_function_string"/>
-    <hyperlink ref="C792" r:id="rId643" location="util_util_debug_string" display="https://nodejs.org/api/util.html - util_util_debug_string"/>
-    <hyperlink ref="C793" r:id="rId644" location="util_util_error" display="https://nodejs.org/api/util.html - util_util_error"/>
-    <hyperlink ref="C794" r:id="rId645" location="util_util_puts" display="https://nodejs.org/api/util.html - util_util_puts"/>
-    <hyperlink ref="C795" r:id="rId646" location="util_util_print" display="https://nodejs.org/api/util.html - util_util_print"/>
-    <hyperlink ref="C796" r:id="rId647" location="util_util_pump_readablestream_writablestream_callback" display="https://nodejs.org/api/util.html - util_util_pump_readablestream_writablestream_callback"/>
-    <hyperlink ref="C799" r:id="rId648" location="vm_executing_javascript" display="vm_executing_javascript"/>
-    <hyperlink ref="C800" r:id="rId649" location="vm_vm_runinthiscontext_code_options" display="https://nodejs.org/api/vm.html - vm_vm_runinthiscontext_code_options"/>
-    <hyperlink ref="C801" r:id="rId650" location="vm_vm_createcontext_sandbox" display="https://nodejs.org/api/vm.html - vm_vm_createcontext_sandbox"/>
-    <hyperlink ref="C802" r:id="rId651" location="vm_vm_iscontext_sandbox" display="https://nodejs.org/api/vm.html - vm_vm_iscontext_sandbox"/>
-    <hyperlink ref="C803" r:id="rId652" location="vm_vm_runincontext_code_contextifiedsandbox_options" display="https://nodejs.org/api/vm.html - vm_vm_runincontext_code_contextifiedsandbox_options"/>
-    <hyperlink ref="C804" r:id="rId653" location="vm_vm_runinnewcontext_code_sandbox_options" display="https://nodejs.org/api/vm.html - vm_vm_runinnewcontext_code_sandbox_options"/>
-    <hyperlink ref="C805" r:id="rId654" location="vm_vm_runindebugcontext_code" display="https://nodejs.org/api/vm.html - vm_vm_runindebugcontext_code"/>
-    <hyperlink ref="C806" r:id="rId655" location="vm_class_script" display="https://nodejs.org/api/vm.html - vm_class_script"/>
-    <hyperlink ref="C807" r:id="rId656" location="vm_new_vm_script_code_options" display="https://nodejs.org/api/vm.html - vm_new_vm_script_code_options"/>
-    <hyperlink ref="C808" r:id="rId657" location="vm_script_runinthiscontext_options" display="https://nodejs.org/api/vm.html - vm_script_runinthiscontext_options"/>
-    <hyperlink ref="C809" r:id="rId658" location="vm_script_runincontext_contextifiedsandbox_options" display="https://nodejs.org/api/vm.html - vm_script_runincontext_contextifiedsandbox_options"/>
-    <hyperlink ref="C810" r:id="rId659" location="vm_script_runinnewcontext_sandbox_options" display="https://nodejs.org/api/vm.html - vm_script_runinnewcontext_sandbox_options"/>
-    <hyperlink ref="C813" r:id="rId660" location="zlib_zlib" display="https://nodejs.org/api/zlib.html - zlib_zlib"/>
-    <hyperlink ref="C814" r:id="rId661" location="zlib_examples" display="https://nodejs.org/api/zlib.html - zlib_examples"/>
-    <hyperlink ref="C815" r:id="rId662" location="zlib_zlib_creategzip_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_creategzip_options"/>
-    <hyperlink ref="C816" r:id="rId663" location="zlib_zlib_creategunzip_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_creategunzip_options"/>
-    <hyperlink ref="C817" r:id="rId664" location="zlib_zlib_createdeflate_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_createdeflate_options"/>
-    <hyperlink ref="C818" r:id="rId665" location="zlib_zlib_createinflate_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_createinflate_options"/>
-    <hyperlink ref="C819" r:id="rId666" location="zlib_zlib_createdeflateraw_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_createdeflateraw_options"/>
-    <hyperlink ref="C820" r:id="rId667" location="zlib_zlib_createinflateraw_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_createinflateraw_options"/>
-    <hyperlink ref="C821" r:id="rId668" location="zlib_zlib_createunzip_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_createunzip_options"/>
-    <hyperlink ref="C822" r:id="rId669" location="zlib_class_zlib_zlib" display="https://nodejs.org/api/zlib.html - zlib_class_zlib_zlib"/>
-    <hyperlink ref="C823" r:id="rId670" location="zlib_zlib_flush_kind_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_flush_kind_callback"/>
-    <hyperlink ref="C824" r:id="rId671" location="zlib_zlib_params_level_strategy_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_params_level_strategy_callback"/>
-    <hyperlink ref="C825" r:id="rId672" location="zlib_zlib_reset" display="https://nodejs.org/api/zlib.html - zlib_zlib_reset"/>
-    <hyperlink ref="C826" r:id="rId673" location="zlib_class_zlib_gzip" display="zlib_class_zlib_gzip"/>
-    <hyperlink ref="C827" r:id="rId674" location="zlib_class_zlib_gunzip" display="https://nodejs.org/api/zlib.html - zlib_class_zlib_gunzip"/>
-    <hyperlink ref="C828" r:id="rId675" location="zlib_class_zlib_deflate" display="zlib_class_zlib_deflate"/>
-    <hyperlink ref="C829" r:id="rId676" location="zlib_class_zlib_inflate" display="https://nodejs.org/api/zlib.html - zlib_class_zlib_inflate"/>
-    <hyperlink ref="C830" r:id="rId677" location="zlib_class_zlib_deflateraw" display="https://nodejs.org/api/zlib.html - zlib_class_zlib_deflateraw"/>
-    <hyperlink ref="C831" r:id="rId678" location="zlib_class_zlib_inflateraw" display="zlib_class_zlib_inflateraw"/>
-    <hyperlink ref="C832" r:id="rId679" location="zlib_class_zlib_unzip" display="https://nodejs.org/api/zlib.html - zlib_class_zlib_unzip"/>
-    <hyperlink ref="C833" r:id="rId680" location="zlib_convenience_methods" display="https://nodejs.org/api/zlib.html - zlib_convenience_methods"/>
-    <hyperlink ref="C834" r:id="rId681" location="zlib_zlib_deflate_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_deflate_buf_options_callback"/>
-    <hyperlink ref="C835" r:id="rId682" location="zlib_zlib_deflatesync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_deflatesync_buf_options"/>
-    <hyperlink ref="C836" r:id="rId683" location="zlib_zlib_deflateraw_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_deflateraw_buf_options_callback"/>
-    <hyperlink ref="C837" r:id="rId684" location="zlib_zlib_deflaterawsync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_deflaterawsync_buf_options"/>
-    <hyperlink ref="C838" r:id="rId685" location="zlib_zlib_gzip_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_gzip_buf_options_callback"/>
-    <hyperlink ref="C839" r:id="rId686" location="zlib_zlib_gzipsync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_gzipsync_buf_options"/>
-    <hyperlink ref="C840" r:id="rId687" location="zlib_zlib_gunzip_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_gunzip_buf_options_callback"/>
-    <hyperlink ref="C841" r:id="rId688" location="zlib_zlib_gunzipsync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_gunzipsync_buf_options"/>
-    <hyperlink ref="C842" r:id="rId689" location="zlib_zlib_inflate_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_inflate_buf_options_callback"/>
-    <hyperlink ref="C843" r:id="rId690" location="zlib_zlib_inflatesync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_inflatesync_buf_options"/>
-    <hyperlink ref="C844" r:id="rId691" location="zlib_zlib_inflateraw_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_inflateraw_buf_options_callback"/>
-    <hyperlink ref="C845" r:id="rId692" location="zlib_zlib_inflaterawsync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_inflaterawsync_buf_options"/>
-    <hyperlink ref="C846" r:id="rId693" location="zlib_zlib_unzip_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_unzip_buf_options_callback"/>
-    <hyperlink ref="C847" r:id="rId694" location="zlib_zlib_unzipsync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_unzipsync_buf_options"/>
-    <hyperlink ref="C848" r:id="rId695" location="zlib_options" display="https://nodejs.org/api/zlib.html - zlib_options"/>
-    <hyperlink ref="C849" r:id="rId696" location="zlib_memory_usage_tuning" display="https://nodejs.org/api/zlib.html - zlib_memory_usage_tuning"/>
-    <hyperlink ref="C850" r:id="rId697" location="zlib_constants" display="https://nodejs.org/api/zlib.html - zlib_constants"/>
+    <hyperlink ref="C682" r:id="rId545" location="string_decoder_stringdecoder" display="https://nodejs.org/api/string_decoder.html - string_decoder_stringdecoder"/>
+    <hyperlink ref="C683" r:id="rId546" location="string_decoder_class_stringdecoder" display="string_decoder_class_stringdecoder"/>
+    <hyperlink ref="C684" r:id="rId547" location="string_decoder_decoder_write_buffer" display="https://nodejs.org/api/string_decoder.html - string_decoder_decoder_write_buffer"/>
+    <hyperlink ref="C685" r:id="rId548" location="string_decoder_decoder_end" display="https://nodejs.org/api/string_decoder.html - string_decoder_decoder_end"/>
+    <hyperlink ref="C688" r:id="rId549" location="timers_timers" display="https://nodejs.org/api/timers.html - timers_timers"/>
+    <hyperlink ref="C689" r:id="rId550" location="timers_settimeout_callback_delay_arg" display="https://nodejs.org/api/timers.html - timers_settimeout_callback_delay_arg"/>
+    <hyperlink ref="C690" r:id="rId551" location="timers_cleartimeout_timeoutobject" display="https://nodejs.org/api/timers.html - timers_cleartimeout_timeoutobject"/>
+    <hyperlink ref="C691" r:id="rId552" location="timers_setinterval_callback_delay_arg" display="https://nodejs.org/api/timers.html - timers_setinterval_callback_delay_arg"/>
+    <hyperlink ref="C692" r:id="rId553" location="timers_clearinterval_intervalobject" display="https://nodejs.org/api/timers.html - timers_clearinterval_intervalobject"/>
+    <hyperlink ref="C693" r:id="rId554" location="timers_unref" display="https://nodejs.org/api/timers.html - timers_unref"/>
+    <hyperlink ref="C694" r:id="rId555" location="timers_ref" display="https://nodejs.org/api/timers.html - timers_ref"/>
+    <hyperlink ref="C695" r:id="rId556" location="timers_setimmediate_callback_arg" display="https://nodejs.org/api/timers.html - timers_setimmediate_callback_arg"/>
+    <hyperlink ref="C696" r:id="rId557" location="timers_clearimmediate_immediateobject" display="https://nodejs.org/api/timers.html - timers_clearimmediate_immediateobject"/>
+    <hyperlink ref="C699" r:id="rId558" location="tls_tls_ssl" display="https://nodejs.org/api/tls.html - tls_tls_ssl"/>
+    <hyperlink ref="C700" r:id="rId559" location="tls_protocol_support" display="https://nodejs.org/api/tls.html - tls_protocol_support"/>
+    <hyperlink ref="C701" r:id="rId560" location="tls_client_initiated_renegotiation_attack_mitigation" display="https://nodejs.org/api/tls.html - tls_client_initiated_renegotiation_attack_mitigation"/>
+    <hyperlink ref="C702" r:id="rId561" location="tls_npn_and_sni" display="https://nodejs.org/api/tls.html - tls_npn_and_sni"/>
+    <hyperlink ref="C703" r:id="rId562" location="tls_perfect_forward_secrecy" display="https://nodejs.org/api/tls.html - tls_perfect_forward_secrecy"/>
+    <hyperlink ref="C704" r:id="rId563" location="tls_tls_getciphers" display="https://nodejs.org/api/tls.html - tls_tls_getciphers"/>
+    <hyperlink ref="C705" r:id="rId564" location="tls_tls_createserver_options_secureconnectionlistener" display="tls_tls_createserver_options_secureconnectionlistener"/>
+    <hyperlink ref="C706" r:id="rId565" location="tls_tls_connect_options_callback" display="https://nodejs.org/api/tls.html - tls_tls_connect_options_callback"/>
+    <hyperlink ref="C707" r:id="rId566" location="tls_tls_connect_port_host_options_callback" display="https://nodejs.org/api/tls.html - tls_tls_connect_port_host_options_callback"/>
+    <hyperlink ref="C708" r:id="rId567" location="tls_class_tls_tlssocket" display="https://nodejs.org/api/tls.html - tls_class_tls_tlssocket"/>
+    <hyperlink ref="C709" r:id="rId568" location="tls_new_tls_tlssocket_socket_options" display="https://nodejs.org/api/tls.html - tls_new_tls_tlssocket_socket_options"/>
+    <hyperlink ref="C710" r:id="rId569" location="tls_tls_createsecurecontext_details" display="https://nodejs.org/api/tls.html - tls_tls_createsecurecontext_details"/>
+    <hyperlink ref="C711" r:id="rId570" location="tls_tls_createsecurepair_context_isserver_requestcert_rejectunauthorized" display="https://nodejs.org/api/tls.html - tls_tls_createsecurepair_context_isserver_requestcert_rejectunauthorized"/>
+    <hyperlink ref="C712" r:id="rId571" location="tls_class_securepair" display="https://nodejs.org/api/tls.html - tls_class_securepair"/>
+    <hyperlink ref="C713" r:id="rId572" location="tls_event_secure" display="https://nodejs.org/api/tls.html - tls_event_secure"/>
+    <hyperlink ref="C714" r:id="rId573" location="tls_class_tls_server" display="https://nodejs.org/api/tls.html - tls_class_tls_server"/>
+    <hyperlink ref="C715" r:id="rId574" location="tls_event_secureconnection" display="https://nodejs.org/api/tls.html - tls_event_secureconnection"/>
+    <hyperlink ref="C716" r:id="rId575" location="tls_event_clienterror" display="https://nodejs.org/api/tls.html - tls_event_clienterror"/>
+    <hyperlink ref="C717" r:id="rId576" location="tls_event_newsession" display="https://nodejs.org/api/tls.html - tls_event_newsession"/>
+    <hyperlink ref="C718" r:id="rId577" location="tls_event_resumesession" display="https://nodejs.org/api/tls.html - tls_event_resumesession"/>
+    <hyperlink ref="C719" r:id="rId578" location="tls_event_ocsprequest" display="https://nodejs.org/api/tls.html - tls_event_ocsprequest"/>
+    <hyperlink ref="C720" r:id="rId579" location="tls_server_listen_port_host_callback" display="https://nodejs.org/api/tls.html - tls_server_listen_port_host_callback"/>
+    <hyperlink ref="C721" r:id="rId580" location="tls_server_close" display="https://nodejs.org/api/tls.html - tls_server_close"/>
+    <hyperlink ref="C722" r:id="rId581" location="tls_server_address" display="https://nodejs.org/api/tls.html - tls_server_address"/>
+    <hyperlink ref="C723" r:id="rId582" location="tls_server_addcontext_hostname_context" display="https://nodejs.org/api/tls.html - tls_server_addcontext_hostname_context"/>
+    <hyperlink ref="C724" r:id="rId583" location="tls_server_maxconnections" display="https://nodejs.org/api/tls.html - tls_server_maxconnections"/>
+    <hyperlink ref="C725" r:id="rId584" location="tls_server_connections" display="https://nodejs.org/api/tls.html - tls_server_connections"/>
+    <hyperlink ref="C726" r:id="rId585" location="tls_class_cryptostream" display="https://nodejs.org/api/tls.html - tls_class_cryptostream"/>
+    <hyperlink ref="C727" r:id="rId586" location="tls_cryptostream_byteswritten" display="https://nodejs.org/api/tls.html - tls_cryptostream_byteswritten"/>
+    <hyperlink ref="C728" r:id="rId587" location="tls_class_tls_tlssocket_1" display="https://nodejs.org/api/tls.html - tls_class_tls_tlssocket_1"/>
+    <hyperlink ref="C729" r:id="rId588" location="tls_event_secureconnect" display="https://nodejs.org/api/tls.html - tls_event_secureconnect"/>
+    <hyperlink ref="C730" r:id="rId589" location="tls_event_ocspresponse" display="https://nodejs.org/api/tls.html - tls_event_ocspresponse"/>
+    <hyperlink ref="C731" r:id="rId590" location="tls_tlssocket_encrypted" display="https://nodejs.org/api/tls.html - tls_tlssocket_encrypted"/>
+    <hyperlink ref="C732" r:id="rId591" location="tls_tlssocket_authorized" display="https://nodejs.org/api/tls.html - tls_tlssocket_authorized"/>
+    <hyperlink ref="C733" r:id="rId592" location="tls_tlssocket_authorizationerror" display="https://nodejs.org/api/tls.html - tls_tlssocket_authorizationerror"/>
+    <hyperlink ref="C734" r:id="rId593" location="tls_tlssocket_getpeercertificate_detailed" display="https://nodejs.org/api/tls.html - tls_tlssocket_getpeercertificate_detailed"/>
+    <hyperlink ref="C735" r:id="rId594" location="tls_tlssocket_getcipher" display="https://nodejs.org/api/tls.html - tls_tlssocket_getcipher"/>
+    <hyperlink ref="C736" r:id="rId595" location="tls_tlssocket_renegotiate_options_callback" display="https://nodejs.org/api/tls.html - tls_tlssocket_renegotiate_options_callback"/>
+    <hyperlink ref="C737" r:id="rId596" location="tls_tlssocket_setmaxsendfragment_size" display="https://nodejs.org/api/tls.html - tls_tlssocket_setmaxsendfragment_size"/>
+    <hyperlink ref="C738" r:id="rId597" location="tls_tlssocket_getsession" display="https://nodejs.org/api/tls.html - tls_tlssocket_getsession"/>
+    <hyperlink ref="C739" r:id="rId598" location="tls_tlssocket_gettlsticket" display="https://nodejs.org/api/tls.html - tls_tlssocket_gettlsticket"/>
+    <hyperlink ref="C740" r:id="rId599" location="tls_tlssocket_address" display="https://nodejs.org/api/tls.html - tls_tlssocket_address"/>
+    <hyperlink ref="C741" r:id="rId600" location="tls_tlssocket_remoteaddress" display="https://nodejs.org/api/tls.html - tls_tlssocket_remoteaddress"/>
+    <hyperlink ref="C742" r:id="rId601" location="tls_tlssocket_remotefamily" display="https://nodejs.org/api/tls.html - tls_tlssocket_remotefamily"/>
+    <hyperlink ref="C743" r:id="rId602" location="tls_tlssocket_remoteport" display="https://nodejs.org/api/tls.html - tls_tlssocket_remoteport"/>
+    <hyperlink ref="C744" r:id="rId603" location="tls_tlssocket_localaddress" display="https://nodejs.org/api/tls.html - tls_tlssocket_localaddress"/>
+    <hyperlink ref="C745" r:id="rId604" location="tls_tlssocket_localport" display="tls_tlssocket_localport"/>
+    <hyperlink ref="C751" r:id="rId605" location="dgram_udp_datagram_sockets" display="https://nodejs.org/api/dgram.html - dgram_udp_datagram_sockets"/>
+    <hyperlink ref="C752" r:id="rId606" location="dgram_dgram_createsocket_type_callback" display="https://nodejs.org/api/dgram.html - dgram_dgram_createsocket_type_callback"/>
+    <hyperlink ref="C753" r:id="rId607" location="dgram_dgram_createsocket_options_callback" display="https://nodejs.org/api/dgram.html - dgram_dgram_createsocket_options_callback"/>
+    <hyperlink ref="C754" r:id="rId608" location="dgram_class_dgram_socket" display="https://nodejs.org/api/dgram.html - dgram_class_dgram_socket"/>
+    <hyperlink ref="C755" r:id="rId609" location="dgram_event_message" display="https://nodejs.org/api/dgram.html - dgram_event_message"/>
+    <hyperlink ref="C756" r:id="rId610" location="dgram_event_listening" display="https://nodejs.org/api/dgram.html - dgram_event_listening"/>
+    <hyperlink ref="C757" r:id="rId611" location="dgram_event_close" display="https://nodejs.org/api/dgram.html - dgram_event_close"/>
+    <hyperlink ref="C758" r:id="rId612" location="dgram_event_error" display="https://nodejs.org/api/dgram.html - dgram_event_error"/>
+    <hyperlink ref="C759" r:id="rId613" location="dgram_socket_send_buf_offset_length_port_address_callback" display="https://nodejs.org/api/dgram.html - dgram_socket_send_buf_offset_length_port_address_callback"/>
+    <hyperlink ref="C760" r:id="rId614" location="dgram_socket_bind_port_address_callback" display="https://nodejs.org/api/dgram.html - dgram_socket_bind_port_address_callback"/>
+    <hyperlink ref="C761" r:id="rId615" location="dgram_socket_bind_options_callback" display="https://nodejs.org/api/dgram.html - dgram_socket_bind_options_callback"/>
+    <hyperlink ref="C762" r:id="rId616" location="dgram_socket_close" display="https://nodejs.org/api/dgram.html - dgram_socket_close"/>
+    <hyperlink ref="C763" r:id="rId617" location="dgram_socket_address" display="https://nodejs.org/api/dgram.html - dgram_socket_address"/>
+    <hyperlink ref="C764" r:id="rId618" location="dgram_socket_setbroadcast_flag" display="https://nodejs.org/api/dgram.html - dgram_socket_setbroadcast_flag"/>
+    <hyperlink ref="C765" r:id="rId619" location="dgram_socket_setttl_ttl" display="https://nodejs.org/api/dgram.html - dgram_socket_setttl_ttl"/>
+    <hyperlink ref="C766" r:id="rId620" location="dgram_socket_setmulticastttl_ttl" display="https://nodejs.org/api/dgram.html - dgram_socket_setmulticastttl_ttl"/>
+    <hyperlink ref="C767" r:id="rId621" location="dgram_socket_setmulticastloopback_flag" display="https://nodejs.org/api/dgram.html - dgram_socket_setmulticastloopback_flag"/>
+    <hyperlink ref="C768" r:id="rId622" location="dgram_socket_addmembership_multicastaddress_multicastinterface" display="https://nodejs.org/api/dgram.html - dgram_socket_addmembership_multicastaddress_multicastinterface"/>
+    <hyperlink ref="C769" r:id="rId623" location="dgram_socket_dropmembership_multicastaddress_multicastinterface" display="https://nodejs.org/api/dgram.html - dgram_socket_dropmembership_multicastaddress_multicastinterface"/>
+    <hyperlink ref="C770" r:id="rId624" location="dgram_socket_unref" display="https://nodejs.org/api/dgram.html - dgram_socket_unref"/>
+    <hyperlink ref="C771" r:id="rId625" location="dgram_socket_ref" display="https://nodejs.org/api/dgram.html - dgram_socket_ref"/>
+    <hyperlink ref="C774" r:id="rId626" location="url_url" display="https://nodejs.org/api/url.html - url_url"/>
+    <hyperlink ref="C775" r:id="rId627" location="url_url_parse_urlstr_parsequerystring_slashesdenotehost" display="https://nodejs.org/api/url.html - url_url_parse_urlstr_parsequerystring_slashesdenotehost"/>
+    <hyperlink ref="C776" r:id="rId628" location="url_url_format_urlobj" display="https://nodejs.org/api/url.html - url_url_format_urlobj"/>
+    <hyperlink ref="C777" r:id="rId629" location="url_url_resolve_from_to" display="https://nodejs.org/api/url.html - url_url_resolve_from_to"/>
+    <hyperlink ref="C780" r:id="rId630" location="util_util" display="util_util"/>
+    <hyperlink ref="C781" r:id="rId631" location="util_util_debuglog_section" display="https://nodejs.org/api/util.html - util_util_debuglog_section"/>
+    <hyperlink ref="C782" r:id="rId632" location="util_util_format_format" display="https://nodejs.org/api/util.html - util_util_format_format"/>
+    <hyperlink ref="C783" r:id="rId633" location="util_util_log_string" display="https://nodejs.org/api/util.html - util_util_log_string"/>
+    <hyperlink ref="C784" r:id="rId634" location="util_util_inspect_object_options" display="https://nodejs.org/api/util.html - util_util_inspect_object_options"/>
+    <hyperlink ref="C785" r:id="rId635" location="util_customizing_util_inspect_colors" display="https://nodejs.org/api/util.html - util_customizing_util_inspect_colors"/>
+    <hyperlink ref="C786" r:id="rId636" location="util_custom_inspect_function_on_objects" display="https://nodejs.org/api/util.html - util_custom_inspect_function_on_objects"/>
+    <hyperlink ref="C787" r:id="rId637" location="util_util_isarray_object" display="https://nodejs.org/api/util.html - util_util_isarray_object"/>
+    <hyperlink ref="C788" r:id="rId638" location="util_util_isregexp_object" display="https://nodejs.org/api/util.html - util_util_isregexp_object"/>
+    <hyperlink ref="C789" r:id="rId639" location="util_util_isdate_object" display="https://nodejs.org/api/util.html - util_util_isdate_object"/>
+    <hyperlink ref="C790" r:id="rId640" location="util_util_iserror_object" display="https://nodejs.org/api/util.html - util_util_iserror_object"/>
+    <hyperlink ref="C791" r:id="rId641" location="util_util_inherits_constructor_superconstructor" display="https://nodejs.org/api/util.html - util_util_inherits_constructor_superconstructor"/>
+    <hyperlink ref="C792" r:id="rId642" location="util_util_deprecate_function_string" display="https://nodejs.org/api/util.html - util_util_deprecate_function_string"/>
+    <hyperlink ref="C793" r:id="rId643" location="util_util_debug_string" display="https://nodejs.org/api/util.html - util_util_debug_string"/>
+    <hyperlink ref="C794" r:id="rId644" location="util_util_error" display="https://nodejs.org/api/util.html - util_util_error"/>
+    <hyperlink ref="C795" r:id="rId645" location="util_util_puts" display="https://nodejs.org/api/util.html - util_util_puts"/>
+    <hyperlink ref="C796" r:id="rId646" location="util_util_print" display="https://nodejs.org/api/util.html - util_util_print"/>
+    <hyperlink ref="C797" r:id="rId647" location="util_util_pump_readablestream_writablestream_callback" display="https://nodejs.org/api/util.html - util_util_pump_readablestream_writablestream_callback"/>
+    <hyperlink ref="C800" r:id="rId648" location="vm_executing_javascript" display="vm_executing_javascript"/>
+    <hyperlink ref="C801" r:id="rId649" location="vm_vm_runinthiscontext_code_options" display="https://nodejs.org/api/vm.html - vm_vm_runinthiscontext_code_options"/>
+    <hyperlink ref="C802" r:id="rId650" location="vm_vm_createcontext_sandbox" display="https://nodejs.org/api/vm.html - vm_vm_createcontext_sandbox"/>
+    <hyperlink ref="C803" r:id="rId651" location="vm_vm_iscontext_sandbox" display="https://nodejs.org/api/vm.html - vm_vm_iscontext_sandbox"/>
+    <hyperlink ref="C804" r:id="rId652" location="vm_vm_runincontext_code_contextifiedsandbox_options" display="https://nodejs.org/api/vm.html - vm_vm_runincontext_code_contextifiedsandbox_options"/>
+    <hyperlink ref="C805" r:id="rId653" location="vm_vm_runinnewcontext_code_sandbox_options" display="https://nodejs.org/api/vm.html - vm_vm_runinnewcontext_code_sandbox_options"/>
+    <hyperlink ref="C806" r:id="rId654" location="vm_vm_runindebugcontext_code" display="https://nodejs.org/api/vm.html - vm_vm_runindebugcontext_code"/>
+    <hyperlink ref="C807" r:id="rId655" location="vm_class_script" display="https://nodejs.org/api/vm.html - vm_class_script"/>
+    <hyperlink ref="C808" r:id="rId656" location="vm_new_vm_script_code_options" display="https://nodejs.org/api/vm.html - vm_new_vm_script_code_options"/>
+    <hyperlink ref="C809" r:id="rId657" location="vm_script_runinthiscontext_options" display="https://nodejs.org/api/vm.html - vm_script_runinthiscontext_options"/>
+    <hyperlink ref="C810" r:id="rId658" location="vm_script_runincontext_contextifiedsandbox_options" display="https://nodejs.org/api/vm.html - vm_script_runincontext_contextifiedsandbox_options"/>
+    <hyperlink ref="C811" r:id="rId659" location="vm_script_runinnewcontext_sandbox_options" display="https://nodejs.org/api/vm.html - vm_script_runinnewcontext_sandbox_options"/>
+    <hyperlink ref="C814" r:id="rId660" location="zlib_zlib" display="https://nodejs.org/api/zlib.html - zlib_zlib"/>
+    <hyperlink ref="C815" r:id="rId661" location="zlib_examples" display="https://nodejs.org/api/zlib.html - zlib_examples"/>
+    <hyperlink ref="C816" r:id="rId662" location="zlib_zlib_creategzip_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_creategzip_options"/>
+    <hyperlink ref="C817" r:id="rId663" location="zlib_zlib_creategunzip_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_creategunzip_options"/>
+    <hyperlink ref="C818" r:id="rId664" location="zlib_zlib_createdeflate_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_createdeflate_options"/>
+    <hyperlink ref="C819" r:id="rId665" location="zlib_zlib_createinflate_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_createinflate_options"/>
+    <hyperlink ref="C820" r:id="rId666" location="zlib_zlib_createdeflateraw_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_createdeflateraw_options"/>
+    <hyperlink ref="C821" r:id="rId667" location="zlib_zlib_createinflateraw_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_createinflateraw_options"/>
+    <hyperlink ref="C822" r:id="rId668" location="zlib_zlib_createunzip_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_createunzip_options"/>
+    <hyperlink ref="C823" r:id="rId669" location="zlib_class_zlib_zlib" display="https://nodejs.org/api/zlib.html - zlib_class_zlib_zlib"/>
+    <hyperlink ref="C824" r:id="rId670" location="zlib_zlib_flush_kind_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_flush_kind_callback"/>
+    <hyperlink ref="C825" r:id="rId671" location="zlib_zlib_params_level_strategy_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_params_level_strategy_callback"/>
+    <hyperlink ref="C826" r:id="rId672" location="zlib_zlib_reset" display="https://nodejs.org/api/zlib.html - zlib_zlib_reset"/>
+    <hyperlink ref="C827" r:id="rId673" location="zlib_class_zlib_gzip" display="zlib_class_zlib_gzip"/>
+    <hyperlink ref="C828" r:id="rId674" location="zlib_class_zlib_gunzip" display="https://nodejs.org/api/zlib.html - zlib_class_zlib_gunzip"/>
+    <hyperlink ref="C829" r:id="rId675" location="zlib_class_zlib_deflate" display="zlib_class_zlib_deflate"/>
+    <hyperlink ref="C830" r:id="rId676" location="zlib_class_zlib_inflate" display="https://nodejs.org/api/zlib.html - zlib_class_zlib_inflate"/>
+    <hyperlink ref="C831" r:id="rId677" location="zlib_class_zlib_deflateraw" display="https://nodejs.org/api/zlib.html - zlib_class_zlib_deflateraw"/>
+    <hyperlink ref="C832" r:id="rId678" location="zlib_class_zlib_inflateraw" display="zlib_class_zlib_inflateraw"/>
+    <hyperlink ref="C833" r:id="rId679" location="zlib_class_zlib_unzip" display="https://nodejs.org/api/zlib.html - zlib_class_zlib_unzip"/>
+    <hyperlink ref="C834" r:id="rId680" location="zlib_convenience_methods" display="https://nodejs.org/api/zlib.html - zlib_convenience_methods"/>
+    <hyperlink ref="C835" r:id="rId681" location="zlib_zlib_deflate_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_deflate_buf_options_callback"/>
+    <hyperlink ref="C836" r:id="rId682" location="zlib_zlib_deflatesync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_deflatesync_buf_options"/>
+    <hyperlink ref="C837" r:id="rId683" location="zlib_zlib_deflateraw_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_deflateraw_buf_options_callback"/>
+    <hyperlink ref="C838" r:id="rId684" location="zlib_zlib_deflaterawsync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_deflaterawsync_buf_options"/>
+    <hyperlink ref="C839" r:id="rId685" location="zlib_zlib_gzip_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_gzip_buf_options_callback"/>
+    <hyperlink ref="C840" r:id="rId686" location="zlib_zlib_gzipsync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_gzipsync_buf_options"/>
+    <hyperlink ref="C841" r:id="rId687" location="zlib_zlib_gunzip_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_gunzip_buf_options_callback"/>
+    <hyperlink ref="C842" r:id="rId688" location="zlib_zlib_gunzipsync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_gunzipsync_buf_options"/>
+    <hyperlink ref="C843" r:id="rId689" location="zlib_zlib_inflate_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_inflate_buf_options_callback"/>
+    <hyperlink ref="C844" r:id="rId690" location="zlib_zlib_inflatesync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_inflatesync_buf_options"/>
+    <hyperlink ref="C845" r:id="rId691" location="zlib_zlib_inflateraw_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_inflateraw_buf_options_callback"/>
+    <hyperlink ref="C846" r:id="rId692" location="zlib_zlib_inflaterawsync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_inflaterawsync_buf_options"/>
+    <hyperlink ref="C847" r:id="rId693" location="zlib_zlib_unzip_buf_options_callback" display="https://nodejs.org/api/zlib.html - zlib_zlib_unzip_buf_options_callback"/>
+    <hyperlink ref="C848" r:id="rId694" location="zlib_zlib_unzipsync_buf_options" display="https://nodejs.org/api/zlib.html - zlib_zlib_unzipsync_buf_options"/>
+    <hyperlink ref="C849" r:id="rId695" location="zlib_options" display="https://nodejs.org/api/zlib.html - zlib_options"/>
+    <hyperlink ref="C850" r:id="rId696" location="zlib_memory_usage_tuning" display="https://nodejs.org/api/zlib.html - zlib_memory_usage_tuning"/>
+    <hyperlink ref="C851" r:id="rId697" location="zlib_constants" display="https://nodejs.org/api/zlib.html - zlib_constants"/>
     <hyperlink ref="C84" r:id="rId698" location="console_console" display="https://nodejs.org/api/console.html - console_console"/>
     <hyperlink ref="C85" r:id="rId699" location="console_console_log_data" display="https://nodejs.org/api/console.html - console_console_log_data"/>
     <hyperlink ref="C86" r:id="rId700" location="console_console_info_data" display="https://nodejs.org/api/console.html - console_console_info_data"/>
